--- a/python/result_data/MTS.MC_resultados.xlsx
+++ b/python/result_data/MTS.MC_resultados.xlsx
@@ -406,7 +406,7 @@
         <v>40545</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
@@ -415,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.379363750342134</v>
+        <v>-1.763058168259305</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +423,7 @@
         <v>40546</v>
       </c>
       <c r="B3" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -432,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5791219142001023</v>
+        <v>0.3641953333919451</v>
       </c>
     </row>
     <row r="4">
@@ -440,7 +440,7 @@
         <v>40547</v>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03971121697372115</v>
+        <v>-0.1220340384140549</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>40548</v>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4103492420617868</v>
+        <v>-0.3651487243170549</v>
       </c>
     </row>
     <row r="6">
@@ -474,16 +474,16 @@
         <v>40549</v>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2415765699234713</v>
+        <v>-1.155271453501805</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +491,7 @@
         <v>40552</v>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.648015504409434</v>
+        <v>-2.431623554492555</v>
       </c>
     </row>
     <row r="8">
@@ -508,16 +508,16 @@
         <v>40553</v>
       </c>
       <c r="B8" t="n">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03971121697372115</v>
+        <v>1.518990091431195</v>
       </c>
     </row>
     <row r="9">
@@ -525,7 +525,7 @@
         <v>40554</v>
       </c>
       <c r="B9" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2647414464914751</v>
+        <v>-0.4259273957928049</v>
       </c>
     </row>
     <row r="10">
@@ -542,7 +542,7 @@
         <v>40555</v>
       </c>
       <c r="B10" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6916370289589793</v>
+        <v>0.1210806474889451</v>
       </c>
     </row>
     <row r="11">
@@ -559,7 +559,7 @@
         <v>40556</v>
       </c>
       <c r="B11" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4897716760092291</v>
+        <v>0.7896460337221951</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.098075963444942</v>
+        <v>-2.127730197113805</v>
       </c>
     </row>
     <row r="13">
@@ -593,7 +593,7 @@
         <v>40560</v>
       </c>
       <c r="B13" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2415765699234713</v>
+        <v>0.5465313478191951</v>
       </c>
     </row>
     <row r="14">
@@ -610,7 +610,7 @@
         <v>40561</v>
       </c>
       <c r="B14" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.8041521437178563</v>
+        <v>-0.3043700528413049</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +627,7 @@
         <v>40562</v>
       </c>
       <c r="B15" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.6353794715795408</v>
+        <v>0.6073100192949451</v>
       </c>
     </row>
     <row r="16">
@@ -644,7 +644,7 @@
         <v>40563</v>
       </c>
       <c r="B16" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2084838891120366</v>
+        <v>-0.0612553669383049</v>
       </c>
     </row>
     <row r="17">
@@ -661,7 +661,7 @@
         <v>40566</v>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
         <v>6</v>
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.816788176547749</v>
+        <v>-1.459164810880555</v>
       </c>
     </row>
     <row r="18">
@@ -678,16 +678,16 @@
         <v>40567</v>
       </c>
       <c r="B18" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6022867907681061</v>
+        <v>1.336654077003945</v>
       </c>
     </row>
     <row r="19">
@@ -695,16 +695,16 @@
         <v>40568</v>
       </c>
       <c r="B19" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8835745776652986</v>
+        <v>1.032760719625195</v>
       </c>
     </row>
     <row r="20">
@@ -712,7 +712,7 @@
         <v>40569</v>
       </c>
       <c r="B20" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -721,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1.22111992194193</v>
+        <v>2.369891492091695</v>
       </c>
     </row>
     <row r="21">
@@ -729,7 +729,7 @@
         <v>40570</v>
       </c>
       <c r="B21" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2647414464914751</v>
+        <v>0.7896460337221951</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>40573</v>
       </c>
       <c r="B22" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" t="n">
         <v>6</v>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.42298527489168</v>
+        <v>-1.763058168259305</v>
       </c>
     </row>
     <row r="23">
@@ -763,7 +763,7 @@
         <v>40574</v>
       </c>
       <c r="B23" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.2415765699234713</v>
+        <v>0.8504247051979451</v>
       </c>
     </row>
     <row r="24">
@@ -780,7 +780,7 @@
         <v>40575</v>
       </c>
       <c r="B24" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2084838891120366</v>
+        <v>-0.4867060672685549</v>
       </c>
     </row>
     <row r="25">
@@ -797,7 +797,7 @@
         <v>40576</v>
       </c>
       <c r="B25" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6022867907681061</v>
+        <v>-0.0612553669383049</v>
       </c>
     </row>
     <row r="26">
@@ -814,16 +814,16 @@
         <v>40577</v>
       </c>
       <c r="B26" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C26" t="n">
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7710594629064216</v>
+        <v>1.154318062576695</v>
       </c>
     </row>
     <row r="27">
@@ -831,16 +831,16 @@
         <v>40580</v>
       </c>
       <c r="B27" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C27" t="n">
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.02918237323561</v>
+        <v>-0.7905994246473049</v>
       </c>
     </row>
     <row r="28">
@@ -848,7 +848,7 @@
         <v>40581</v>
       </c>
       <c r="B28" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4897716760092291</v>
+        <v>0.8504247051979451</v>
       </c>
     </row>
     <row r="29">
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>2.627558856427892</v>
+        <v>2.977678206849195</v>
       </c>
     </row>
     <row r="30">
@@ -882,16 +882,16 @@
         <v>40583</v>
       </c>
       <c r="B30" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9960896924241756</v>
+        <v>1.032760719625195</v>
       </c>
     </row>
     <row r="31">
@@ -899,7 +899,7 @@
         <v>40584</v>
       </c>
       <c r="B31" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C31" t="n">
         <v>3</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.2415765699234713</v>
+        <v>-0.0004766954625549003</v>
       </c>
     </row>
     <row r="32">
@@ -916,7 +916,7 @@
         <v>40587</v>
       </c>
       <c r="B32" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
         <v>6</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.197955045373926</v>
+        <v>-1.276828796453305</v>
       </c>
     </row>
     <row r="33">
@@ -933,16 +933,16 @@
         <v>40588</v>
       </c>
       <c r="B33" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.6353794715795408</v>
+        <v>1.032760719625195</v>
       </c>
     </row>
     <row r="34">
@@ -950,7 +950,7 @@
         <v>40589</v>
       </c>
       <c r="B34" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.2415765699234713</v>
+        <v>0.3641953333919451</v>
       </c>
     </row>
     <row r="35">
@@ -967,7 +967,7 @@
         <v>40590</v>
       </c>
       <c r="B35" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.5228643568206638</v>
+        <v>-0.1220340384140549</v>
       </c>
     </row>
     <row r="36">
@@ -984,7 +984,7 @@
         <v>40591</v>
       </c>
       <c r="B36" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C36" t="n">
         <v>3</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2084838891120366</v>
+        <v>-0.1220340384140549</v>
       </c>
     </row>
     <row r="37">
@@ -1001,7 +1001,7 @@
         <v>40594</v>
       </c>
       <c r="B37" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C37" t="n">
         <v>6</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.929303291306626</v>
+        <v>-1.337607467929055</v>
       </c>
     </row>
     <row r="38">
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.4103492420617868</v>
+        <v>-0.3043700528413049</v>
       </c>
     </row>
     <row r="39">
@@ -1035,7 +1035,7 @@
         <v>40596</v>
       </c>
       <c r="B39" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3772565612503521</v>
+        <v>-0.0004766954625549003</v>
       </c>
     </row>
     <row r="40">
@@ -1052,7 +1052,7 @@
         <v>40597</v>
       </c>
       <c r="B40" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3772565612503521</v>
+        <v>-0.0004766954625549003</v>
       </c>
     </row>
     <row r="41">
@@ -1069,7 +1069,7 @@
         <v>40598</v>
       </c>
       <c r="B41" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C41" t="n">
         <v>3</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7148019055269831</v>
+        <v>0.4857526763434451</v>
       </c>
     </row>
     <row r="42">
@@ -1086,16 +1086,16 @@
         <v>40601</v>
       </c>
       <c r="B42" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C42" t="n">
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.8604097010972948</v>
+        <v>-1.398386139404805</v>
       </c>
     </row>
     <row r="43">
@@ -1103,7 +1103,7 @@
         <v>40602</v>
       </c>
       <c r="B43" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4335141186297906</v>
+        <v>-0.1828127098898049</v>
       </c>
     </row>
     <row r="44">
@@ -1120,7 +1120,7 @@
         <v>40603</v>
       </c>
       <c r="B44" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.09596877435315963</v>
+        <v>0.7288673622464451</v>
       </c>
     </row>
     <row r="45">
@@ -1137,7 +1137,7 @@
         <v>40604</v>
       </c>
       <c r="B45" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7148019055269831</v>
+        <v>0.6073100192949451</v>
       </c>
     </row>
     <row r="46">
@@ -1154,7 +1154,7 @@
         <v>40605</v>
       </c>
       <c r="B46" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C46" t="n">
         <v>3</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1522263317325981</v>
+        <v>0.4857526763434451</v>
       </c>
     </row>
     <row r="47">
@@ -1171,7 +1171,7 @@
         <v>40608</v>
       </c>
       <c r="B47" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C47" t="n">
         <v>6</v>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.479242832271118</v>
+        <v>-2.006172854162305</v>
       </c>
     </row>
     <row r="48">
@@ -1188,7 +1188,7 @@
         <v>40609</v>
       </c>
       <c r="B48" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.1290614551645943</v>
+        <v>0.3034166619161951</v>
       </c>
     </row>
     <row r="49">
@@ -1205,7 +1205,7 @@
         <v>40610</v>
       </c>
       <c r="B49" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4897716760092291</v>
+        <v>-0.2435913813655549</v>
       </c>
     </row>
     <row r="50">
@@ -1222,7 +1222,7 @@
         <v>40611</v>
       </c>
       <c r="B50" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.03971121697372115</v>
+        <v>0.8504247051979451</v>
       </c>
     </row>
     <row r="51">
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.03971121697372115</v>
+        <v>0.1818593189646951</v>
       </c>
     </row>
     <row r="52">
@@ -1256,7 +1256,7 @@
         <v>40615</v>
       </c>
       <c r="B52" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52" t="n">
         <v>6</v>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.535500389650557</v>
+        <v>-1.580722153832055</v>
       </c>
     </row>
     <row r="53">
@@ -1273,7 +1273,7 @@
         <v>40616</v>
       </c>
       <c r="B53" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3209990038709136</v>
+        <v>0.6073100192949451</v>
       </c>
     </row>
     <row r="54">
@@ -1290,7 +1290,7 @@
         <v>40617</v>
       </c>
       <c r="B54" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03971121697372115</v>
+        <v>0.2426379904404451</v>
       </c>
     </row>
     <row r="55">
@@ -1307,7 +1307,7 @@
         <v>40618</v>
       </c>
       <c r="B55" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3540916846823483</v>
+        <v>0.5465313478191951</v>
       </c>
     </row>
     <row r="56">
@@ -1324,16 +1324,16 @@
         <v>40619</v>
       </c>
       <c r="B56" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C56" t="n">
         <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2647414464914751</v>
+        <v>1.215096734052445</v>
       </c>
     </row>
     <row r="57">
@@ -1341,16 +1341,16 @@
         <v>40622</v>
       </c>
       <c r="B57" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C57" t="n">
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.591757947029995</v>
+        <v>-0.9729354390745549</v>
       </c>
     </row>
     <row r="58">
@@ -1358,7 +1358,7 @@
         <v>40623</v>
       </c>
       <c r="B58" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3772565612503521</v>
+        <v>0.8504247051979451</v>
       </c>
     </row>
     <row r="59">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.09596877435315963</v>
+        <v>0.2426379904404451</v>
       </c>
     </row>
     <row r="60">
@@ -1392,7 +1392,7 @@
         <v>40625</v>
       </c>
       <c r="B60" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7710594629064216</v>
+        <v>0.5465313478191951</v>
       </c>
     </row>
     <row r="61">
@@ -1409,7 +1409,7 @@
         <v>40626</v>
       </c>
       <c r="B61" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C61" t="n">
         <v>3</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5460292333886676</v>
+        <v>-0.5474847387443049</v>
       </c>
     </row>
     <row r="62">
@@ -1426,7 +1426,7 @@
         <v>40629</v>
       </c>
       <c r="B62" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C62" t="n">
         <v>6</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.479242832271118</v>
+        <v>-1.276828796453305</v>
       </c>
     </row>
     <row r="63">
@@ -1443,7 +1443,7 @@
         <v>40630</v>
       </c>
       <c r="B63" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6022867907681061</v>
+        <v>-0.3043700528413049</v>
       </c>
     </row>
     <row r="64">
@@ -1460,7 +1460,7 @@
         <v>40631</v>
       </c>
       <c r="B64" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2415765699234713</v>
+        <v>0.3641953333919451</v>
       </c>
     </row>
     <row r="65">
@@ -1477,7 +1477,7 @@
         <v>40632</v>
       </c>
       <c r="B65" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2647414464914751</v>
+        <v>0.6680886907706951</v>
       </c>
     </row>
     <row r="66">
@@ -1494,7 +1494,7 @@
         <v>40633</v>
       </c>
       <c r="B66" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C66" t="n">
         <v>3</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3772565612503521</v>
+        <v>-0.0004766954625549003</v>
       </c>
     </row>
     <row r="67">
@@ -1511,7 +1511,7 @@
         <v>40636</v>
       </c>
       <c r="B67" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C67" t="n">
         <v>6</v>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.648015504409434</v>
+        <v>-1.519943482356305</v>
       </c>
     </row>
     <row r="68">
@@ -1528,16 +1528,16 @@
         <v>40637</v>
       </c>
       <c r="B68" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2084838891120366</v>
+        <v>1.032760719625195</v>
       </c>
     </row>
     <row r="69">
@@ -1545,7 +1545,7 @@
         <v>40638</v>
       </c>
       <c r="B69" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.7478945863384178</v>
+        <v>0.1210806474889451</v>
       </c>
     </row>
     <row r="70">
@@ -1562,7 +1562,7 @@
         <v>40639</v>
       </c>
       <c r="B70" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C70" t="n">
         <v>2</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9166672584767332</v>
+        <v>0.2426379904404451</v>
       </c>
     </row>
     <row r="71">
@@ -1579,7 +1579,7 @@
         <v>40640</v>
       </c>
       <c r="B71" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C71" t="n">
         <v>3</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.07280389778515584</v>
+        <v>0.3641953333919451</v>
       </c>
     </row>
     <row r="72">
@@ -1596,7 +1596,7 @@
         <v>40643</v>
       </c>
       <c r="B72" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C72" t="n">
         <v>6</v>
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.760530619168311</v>
+        <v>-2.006172854162305</v>
       </c>
     </row>
     <row r="73">
@@ -1613,7 +1613,7 @@
         <v>40644</v>
       </c>
       <c r="B73" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.7148019055269831</v>
+        <v>0.7288673622464451</v>
       </c>
     </row>
     <row r="74">
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4335141186297906</v>
+        <v>0.6073100192949451</v>
       </c>
     </row>
     <row r="75">
@@ -1647,7 +1647,7 @@
         <v>40646</v>
       </c>
       <c r="B75" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C75" t="n">
         <v>2</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6022867907681061</v>
+        <v>0.6680886907706951</v>
       </c>
     </row>
     <row r="76">
@@ -1664,7 +1664,7 @@
         <v>40647</v>
       </c>
       <c r="B76" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C76" t="n">
         <v>3</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4335141186297906</v>
+        <v>0.2426379904404451</v>
       </c>
     </row>
     <row r="77">
@@ -1681,7 +1681,7 @@
         <v>40650</v>
       </c>
       <c r="B77" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C77" t="n">
         <v>6</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.310470160132803</v>
+        <v>-1.033714110550305</v>
       </c>
     </row>
     <row r="78">
@@ -1698,16 +1698,16 @@
         <v>40651</v>
       </c>
       <c r="B78" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4897716760092291</v>
+        <v>1.518990091431195</v>
       </c>
     </row>
     <row r="79">
@@ -1715,7 +1715,7 @@
         <v>40652</v>
       </c>
       <c r="B79" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8273170202858601</v>
+        <v>0.4249740048676951</v>
       </c>
     </row>
     <row r="80">
@@ -1732,7 +1732,7 @@
         <v>40653</v>
       </c>
       <c r="B80" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.3540916846823483</v>
+        <v>-0.6690420816958049</v>
       </c>
     </row>
     <row r="81">
@@ -1749,16 +1749,16 @@
         <v>40658</v>
       </c>
       <c r="B81" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.9166672584767332</v>
+        <v>-1.033714110550305</v>
       </c>
     </row>
     <row r="82">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.8041521437178563</v>
+        <v>-0.7298207531715549</v>
       </c>
     </row>
     <row r="83">
@@ -1783,7 +1783,7 @@
         <v>40660</v>
       </c>
       <c r="B83" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C83" t="n">
         <v>2</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2647414464914751</v>
+        <v>-0.1220340384140549</v>
       </c>
     </row>
     <row r="84">
@@ -1800,7 +1800,7 @@
         <v>40661</v>
       </c>
       <c r="B84" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C84" t="n">
         <v>3</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2415765699234713</v>
+        <v>-0.6082634102200549</v>
       </c>
     </row>
     <row r="85">
@@ -1817,7 +1817,7 @@
         <v>40664</v>
       </c>
       <c r="B85" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C85" t="n">
         <v>6</v>
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>-2.323106192962696</v>
+        <v>-1.702279496783555</v>
       </c>
     </row>
     <row r="86">
@@ -1834,16 +1834,16 @@
         <v>40665</v>
       </c>
       <c r="B86" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.02918237323561</v>
+        <v>0.1818593189646951</v>
       </c>
     </row>
     <row r="87">
@@ -1851,7 +1851,7 @@
         <v>40666</v>
       </c>
       <c r="B87" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.5228643568206638</v>
+        <v>0.5465313478191951</v>
       </c>
     </row>
     <row r="88">
@@ -1868,7 +1868,7 @@
         <v>40667</v>
       </c>
       <c r="B88" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C88" t="n">
         <v>2</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.01654634040571734</v>
+        <v>-0.0004766954625549003</v>
       </c>
     </row>
     <row r="89">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.8041521437178563</v>
+        <v>-0.7298207531715549</v>
       </c>
     </row>
     <row r="90">
@@ -1902,7 +1902,7 @@
         <v>40671</v>
       </c>
       <c r="B90" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C90" t="n">
         <v>6</v>
@@ -1911,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>-2.098075963444942</v>
+        <v>-1.580722153832055</v>
       </c>
     </row>
     <row r="91">
@@ -1919,7 +1919,7 @@
         <v>40672</v>
       </c>
       <c r="B91" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.01654634040571734</v>
+        <v>-0.1220340384140549</v>
       </c>
     </row>
     <row r="92">
@@ -1936,16 +1936,16 @@
         <v>40673</v>
       </c>
       <c r="B92" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7148019055269831</v>
+        <v>1.518990091431195</v>
       </c>
     </row>
     <row r="93">
@@ -1953,7 +1953,7 @@
         <v>40674</v>
       </c>
       <c r="B93" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C93" t="n">
         <v>2</v>
@@ -1962,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>1.277377479321368</v>
+        <v>1.822883448809945</v>
       </c>
     </row>
     <row r="94">
@@ -1970,7 +1970,7 @@
         <v>40675</v>
       </c>
       <c r="B94" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C94" t="n">
         <v>3</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.07280389778515584</v>
+        <v>0.6680886907706951</v>
       </c>
     </row>
     <row r="95">
@@ -1987,7 +1987,7 @@
         <v>40678</v>
       </c>
       <c r="B95" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C95" t="n">
         <v>6</v>
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.985560848686065</v>
+        <v>-1.337607467929055</v>
       </c>
     </row>
     <row r="96">
@@ -2004,7 +2004,7 @@
         <v>40679</v>
       </c>
       <c r="B96" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.1853190125440328</v>
+        <v>0.3641953333919451</v>
       </c>
     </row>
     <row r="97">
@@ -2021,7 +2021,7 @@
         <v>40680</v>
       </c>
       <c r="B97" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3772565612503521</v>
+        <v>0.8504247051979451</v>
       </c>
     </row>
     <row r="98">
@@ -2038,7 +2038,7 @@
         <v>40681</v>
       </c>
       <c r="B98" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C98" t="n">
         <v>2</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6022867907681061</v>
+        <v>0.9719820481494451</v>
       </c>
     </row>
     <row r="99">
@@ -2055,7 +2055,7 @@
         <v>40682</v>
       </c>
       <c r="B99" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C99" t="n">
         <v>3</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.1290614551645943</v>
+        <v>0.3641953333919451</v>
       </c>
     </row>
     <row r="100">
@@ -2072,7 +2072,7 @@
         <v>40685</v>
       </c>
       <c r="B100" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C100" t="n">
         <v>6</v>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>-1.085439930615049</v>
+        <v>-1.823836839735055</v>
       </c>
     </row>
     <row r="101">
@@ -2089,7 +2089,7 @@
         <v>40686</v>
       </c>
       <c r="B101" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>1.108604807183053</v>
+        <v>1.397432748479695</v>
       </c>
     </row>
     <row r="102">
@@ -2106,7 +2106,7 @@
         <v>40687</v>
       </c>
       <c r="B102" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8835745776652986</v>
+        <v>0.4249740048676951</v>
       </c>
     </row>
     <row r="103">
@@ -2123,7 +2123,7 @@
         <v>40688</v>
       </c>
       <c r="B103" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C103" t="n">
         <v>2</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.03971121697372115</v>
+        <v>0.2426379904404451</v>
       </c>
     </row>
     <row r="104">
@@ -2140,7 +2140,7 @@
         <v>40689</v>
       </c>
       <c r="B104" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C104" t="n">
         <v>3</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4335141186297906</v>
+        <v>0.7288673622464451</v>
       </c>
     </row>
     <row r="105">
@@ -2157,16 +2157,16 @@
         <v>40692</v>
       </c>
       <c r="B105" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C105" t="n">
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>-1.42298527489168</v>
+        <v>-0.3651487243170549</v>
       </c>
     </row>
     <row r="106">
@@ -2174,7 +2174,7 @@
         <v>40693</v>
       </c>
       <c r="B106" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.6353794715795408</v>
+        <v>0.3034166619161951</v>
       </c>
     </row>
     <row r="107">
@@ -2191,16 +2191,16 @@
         <v>40694</v>
       </c>
       <c r="B107" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>1.164862364562491</v>
+        <v>0.8504247051979451</v>
       </c>
     </row>
     <row r="108">
@@ -2208,16 +2208,16 @@
         <v>40695</v>
       </c>
       <c r="B108" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C108" t="n">
         <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4335141186297906</v>
+        <v>1.518990091431195</v>
       </c>
     </row>
     <row r="109">
@@ -2225,7 +2225,7 @@
         <v>40696</v>
       </c>
       <c r="B109" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C109" t="n">
         <v>3</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.4103492420617868</v>
+        <v>-0.6082634102200549</v>
       </c>
     </row>
     <row r="110">
@@ -2242,7 +2242,7 @@
         <v>40699</v>
       </c>
       <c r="B110" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C110" t="n">
         <v>6</v>
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>-1.141697487994487</v>
+        <v>-1.155271453501805</v>
       </c>
     </row>
     <row r="111">
@@ -2259,7 +2259,7 @@
         <v>40700</v>
       </c>
       <c r="B111" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3209990038709136</v>
+        <v>0.1818593189646951</v>
       </c>
     </row>
     <row r="112">
@@ -2276,16 +2276,16 @@
         <v>40701</v>
       </c>
       <c r="B112" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4897716760092291</v>
+        <v>1.458211419955445</v>
       </c>
     </row>
     <row r="113">
@@ -2293,7 +2293,7 @@
         <v>40702</v>
       </c>
       <c r="B113" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C113" t="n">
         <v>2</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.07280389778515584</v>
+        <v>0.3034166619161951</v>
       </c>
     </row>
     <row r="114">
@@ -2310,7 +2310,7 @@
         <v>40703</v>
       </c>
       <c r="B114" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C114" t="n">
         <v>3</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1522263317325981</v>
+        <v>0.2426379904404451</v>
       </c>
     </row>
     <row r="115">
@@ -2327,16 +2327,16 @@
         <v>40706</v>
       </c>
       <c r="B115" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C115" t="n">
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>-1.760530619168311</v>
+        <v>-0.7298207531715549</v>
       </c>
     </row>
     <row r="116">
@@ -2344,16 +2344,16 @@
         <v>40707</v>
       </c>
       <c r="B116" t="n">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.4103492420617868</v>
+        <v>1.093539391100945</v>
       </c>
     </row>
     <row r="117">
@@ -2361,16 +2361,16 @@
         <v>40708</v>
       </c>
       <c r="B117" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.7710594629064216</v>
+        <v>1.154318062576695</v>
       </c>
     </row>
     <row r="118">
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2647414464914751</v>
+        <v>0.4249740048676951</v>
       </c>
     </row>
     <row r="119">
@@ -2395,7 +2395,7 @@
         <v>40710</v>
       </c>
       <c r="B119" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C119" t="n">
         <v>3</v>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0.03971121697372115</v>
+        <v>0.0603019760131951</v>
       </c>
     </row>
     <row r="120">
@@ -2412,16 +2412,16 @@
         <v>40713</v>
       </c>
       <c r="B120" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C120" t="n">
         <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.9729248158561717</v>
+        <v>-1.155271453501805</v>
       </c>
     </row>
     <row r="121">
@@ -2429,7 +2429,7 @@
         <v>40714</v>
       </c>
       <c r="B121" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.1290614551645943</v>
+        <v>0.3034166619161951</v>
       </c>
     </row>
     <row r="122">
@@ -2446,7 +2446,7 @@
         <v>40715</v>
       </c>
       <c r="B122" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4897716760092291</v>
+        <v>0.6073100192949451</v>
       </c>
     </row>
     <row r="123">
@@ -2463,7 +2463,7 @@
         <v>40716</v>
       </c>
       <c r="B123" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C123" t="n">
         <v>2</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4897716760092291</v>
+        <v>0.3641953333919451</v>
       </c>
     </row>
     <row r="124">
@@ -2480,7 +2480,7 @@
         <v>40717</v>
       </c>
       <c r="B124" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C124" t="n">
         <v>3</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.01654634040571734</v>
+        <v>0.5465313478191951</v>
       </c>
     </row>
     <row r="125">
@@ -2497,16 +2497,16 @@
         <v>40720</v>
       </c>
       <c r="B125" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C125" t="n">
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>-1.535500389650557</v>
+        <v>-0.7905994246473049</v>
       </c>
     </row>
     <row r="126">
@@ -2514,7 +2514,7 @@
         <v>40721</v>
       </c>
       <c r="B126" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3772565612503521</v>
+        <v>0.0603019760131951</v>
       </c>
     </row>
     <row r="127">
@@ -2531,7 +2531,7 @@
         <v>40722</v>
       </c>
       <c r="B127" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4335141186297906</v>
+        <v>-0.0612553669383049</v>
       </c>
     </row>
     <row r="128">
@@ -2548,7 +2548,7 @@
         <v>40724</v>
       </c>
       <c r="B128" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C128" t="n">
         <v>3</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.6353794715795408</v>
+        <v>-0.6690420816958049</v>
       </c>
     </row>
     <row r="129">
@@ -2565,7 +2565,7 @@
         <v>40727</v>
       </c>
       <c r="B129" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C129" t="n">
         <v>6</v>
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>-1.760530619168311</v>
+        <v>-2.006172854162305</v>
       </c>
     </row>
     <row r="130">
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.07280389778515584</v>
+        <v>0.0603019760131951</v>
       </c>
     </row>
     <row r="131">
@@ -2599,7 +2599,7 @@
         <v>40729</v>
       </c>
       <c r="B131" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6585443481475446</v>
+        <v>-0.3043700528413049</v>
       </c>
     </row>
     <row r="132">
@@ -2616,7 +2616,7 @@
         <v>40730</v>
       </c>
       <c r="B132" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C132" t="n">
         <v>2</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6585443481475446</v>
+        <v>0.1210806474889451</v>
       </c>
     </row>
     <row r="133">
@@ -2633,16 +2633,16 @@
         <v>40731</v>
       </c>
       <c r="B133" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C133" t="n">
         <v>3</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>1.389892594080245</v>
+        <v>0.6680886907706951</v>
       </c>
     </row>
     <row r="134">
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>-1.479242832271118</v>
+        <v>-1.459164810880555</v>
       </c>
     </row>
     <row r="135">
@@ -2667,7 +2667,7 @@
         <v>40735</v>
       </c>
       <c r="B135" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>0.6022867907681061</v>
+        <v>0.1210806474889451</v>
       </c>
     </row>
     <row r="136">
@@ -2684,7 +2684,7 @@
         <v>40736</v>
       </c>
       <c r="B136" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4335141186297906</v>
+        <v>-0.3043700528413049</v>
       </c>
     </row>
     <row r="137">
@@ -2701,16 +2701,16 @@
         <v>40737</v>
       </c>
       <c r="B137" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C137" t="n">
         <v>2</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.5791219142001023</v>
+        <v>-1.216050124977555</v>
       </c>
     </row>
     <row r="138">
@@ -2718,7 +2718,7 @@
         <v>40738</v>
       </c>
       <c r="B138" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C138" t="n">
         <v>3</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.2978341273029098</v>
+        <v>0.1818593189646951</v>
       </c>
     </row>
     <row r="139">
@@ -2735,7 +2735,7 @@
         <v>40741</v>
       </c>
       <c r="B139" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C139" t="n">
         <v>6</v>
@@ -2744,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>-1.310470160132803</v>
+        <v>-1.398386139404805</v>
       </c>
     </row>
     <row r="140">
@@ -2752,7 +2752,7 @@
         <v>40742</v>
       </c>
       <c r="B140" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0.6585443481475446</v>
+        <v>0.2426379904404451</v>
       </c>
     </row>
     <row r="141">
@@ -2769,7 +2769,7 @@
         <v>40743</v>
       </c>
       <c r="B141" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.7148019055269831</v>
+        <v>0.5465313478191951</v>
       </c>
     </row>
     <row r="142">
@@ -2786,7 +2786,7 @@
         <v>40744</v>
       </c>
       <c r="B142" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C142" t="n">
         <v>2</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.5228643568206638</v>
+        <v>-0.7905994246473049</v>
       </c>
     </row>
     <row r="143">
@@ -2803,16 +2803,16 @@
         <v>40745</v>
       </c>
       <c r="B143" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C143" t="n">
         <v>3</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>-1.085439930615049</v>
+        <v>0.0603019760131951</v>
       </c>
     </row>
     <row r="144">
@@ -2820,7 +2820,7 @@
         <v>40748</v>
       </c>
       <c r="B144" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C144" t="n">
         <v>6</v>
@@ -2829,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>-1.648015504409434</v>
+        <v>-2.006172854162305</v>
       </c>
     </row>
     <row r="145">
@@ -2837,7 +2837,7 @@
         <v>40749</v>
       </c>
       <c r="B145" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0.09596877435315963</v>
+        <v>-0.6082634102200549</v>
       </c>
     </row>
     <row r="146">
@@ -2854,7 +2854,7 @@
         <v>40750</v>
       </c>
       <c r="B146" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.4897716760092291</v>
+        <v>0.1210806474889451</v>
       </c>
     </row>
     <row r="147">
@@ -2871,7 +2871,7 @@
         <v>40751</v>
       </c>
       <c r="B147" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C147" t="n">
         <v>2</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0.2084838891120366</v>
+        <v>-0.2435913813655549</v>
       </c>
     </row>
     <row r="148">
@@ -2888,7 +2888,7 @@
         <v>40752</v>
       </c>
       <c r="B148" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C148" t="n">
         <v>3</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.2415765699234713</v>
+        <v>-0.6082634102200549</v>
       </c>
     </row>
     <row r="149">
@@ -2905,7 +2905,7 @@
         <v>40755</v>
       </c>
       <c r="B149" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C149" t="n">
         <v>6</v>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>-1.985560848686065</v>
+        <v>-1.641500825307805</v>
       </c>
     </row>
     <row r="150">
@@ -2922,7 +2922,7 @@
         <v>40756</v>
       </c>
       <c r="B150" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.8041521437178563</v>
+        <v>-0.5474847387443049</v>
       </c>
     </row>
     <row r="151">
@@ -2939,7 +2939,7 @@
         <v>40757</v>
       </c>
       <c r="B151" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.7148019055269831</v>
+        <v>0.1818593189646951</v>
       </c>
     </row>
     <row r="152">
@@ -2956,7 +2956,7 @@
         <v>40758</v>
       </c>
       <c r="B152" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C152" t="n">
         <v>2</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>0.03971121697372115</v>
+        <v>-0.4867060672685549</v>
       </c>
     </row>
     <row r="153">
@@ -2973,16 +2973,16 @@
         <v>40759</v>
       </c>
       <c r="B153" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C153" t="n">
         <v>3</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>0.7710594629064216</v>
+        <v>1.275875405528195</v>
       </c>
     </row>
     <row r="154">
@@ -2990,7 +2990,7 @@
         <v>40762</v>
       </c>
       <c r="B154" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C154" t="n">
         <v>6</v>
@@ -2999,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>-1.141697487994487</v>
+        <v>-1.702279496783555</v>
       </c>
     </row>
     <row r="155">
@@ -3007,7 +3007,7 @@
         <v>40763</v>
       </c>
       <c r="B155" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>0.7710594629064216</v>
+        <v>0.6680886907706951</v>
       </c>
     </row>
     <row r="156">
@@ -3024,7 +3024,7 @@
         <v>40764</v>
       </c>
       <c r="B156" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.09596877435315963</v>
+        <v>-0.3043700528413049</v>
       </c>
     </row>
     <row r="157">
@@ -3041,16 +3041,16 @@
         <v>40765</v>
       </c>
       <c r="B157" t="n">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C157" t="n">
         <v>2</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>2.290013512151261</v>
+        <v>0.9112033766736951</v>
       </c>
     </row>
     <row r="158">
@@ -3058,7 +3058,7 @@
         <v>40766</v>
       </c>
       <c r="B158" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C158" t="n">
         <v>3</v>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.1290614551645943</v>
+        <v>0.1210806474889451</v>
       </c>
     </row>
     <row r="159">
@@ -3075,7 +3075,7 @@
         <v>40769</v>
       </c>
       <c r="B159" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C159" t="n">
         <v>6</v>
@@ -3084,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>-2.041818406065503</v>
+        <v>-1.337607467929055</v>
       </c>
     </row>
     <row r="160">
@@ -3092,7 +3092,7 @@
         <v>40770</v>
       </c>
       <c r="B160" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.5791219142001023</v>
+        <v>-0.7298207531715549</v>
       </c>
     </row>
     <row r="161">
@@ -3109,7 +3109,7 @@
         <v>40771</v>
       </c>
       <c r="B161" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0.3209990038709136</v>
+        <v>0.0603019760131951</v>
       </c>
     </row>
     <row r="162">
@@ -3126,16 +3126,16 @@
         <v>40772</v>
       </c>
       <c r="B162" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C162" t="n">
         <v>2</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>1.052347249803614</v>
+        <v>-0.4259273957928049</v>
       </c>
     </row>
     <row r="163">
@@ -3143,7 +3143,7 @@
         <v>40773</v>
       </c>
       <c r="B163" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C163" t="n">
         <v>3</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.5228643568206638</v>
+        <v>-0.3651487243170549</v>
       </c>
     </row>
     <row r="164">
@@ -3160,16 +3160,16 @@
         <v>40776</v>
       </c>
       <c r="B164" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C164" t="n">
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>-0.9166672584767332</v>
+        <v>-1.519943482356305</v>
       </c>
     </row>
     <row r="165">
@@ -3177,7 +3177,7 @@
         <v>40777</v>
       </c>
       <c r="B165" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0.8835745776652986</v>
+        <v>0.4857526763434451</v>
       </c>
     </row>
     <row r="166">
@@ -3194,16 +3194,16 @@
         <v>40778</v>
       </c>
       <c r="B166" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>1.277377479321368</v>
+        <v>0.9112033766736951</v>
       </c>
     </row>
     <row r="167">
@@ -3211,16 +3211,16 @@
         <v>40779</v>
       </c>
       <c r="B167" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C167" t="n">
         <v>2</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>1.108604807183053</v>
+        <v>0.9112033766736951</v>
       </c>
     </row>
     <row r="168">
@@ -3228,7 +3228,7 @@
         <v>40780</v>
       </c>
       <c r="B168" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C168" t="n">
         <v>3</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>0.1522263317325981</v>
+        <v>-0.2435913813655549</v>
       </c>
     </row>
     <row r="169">
@@ -3245,7 +3245,7 @@
         <v>40783</v>
       </c>
       <c r="B169" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C169" t="n">
         <v>6</v>
@@ -3254,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>-1.535500389650557</v>
+        <v>-2.188508868589555</v>
       </c>
     </row>
     <row r="170">
@@ -3262,7 +3262,7 @@
         <v>40784</v>
       </c>
       <c r="B170" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.4666067994412253</v>
+        <v>-0.2435913813655549</v>
       </c>
     </row>
     <row r="171">
@@ -3279,7 +3279,7 @@
         <v>40785</v>
       </c>
       <c r="B171" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0.3772565612503521</v>
+        <v>-0.1220340384140549</v>
       </c>
     </row>
     <row r="172">
@@ -3296,7 +3296,7 @@
         <v>40786</v>
       </c>
       <c r="B172" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C172" t="n">
         <v>2</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0.03971121697372115</v>
+        <v>-0.0004766954625549003</v>
       </c>
     </row>
     <row r="173">
@@ -3313,7 +3313,7 @@
         <v>40787</v>
       </c>
       <c r="B173" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C173" t="n">
         <v>3</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>0.9398321350447371</v>
+        <v>-0.0612553669383049</v>
       </c>
     </row>
     <row r="174">
@@ -3330,16 +3330,16 @@
         <v>40790</v>
       </c>
       <c r="B174" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C174" t="n">
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.8041521437178563</v>
+        <v>-1.945394182686555</v>
       </c>
     </row>
     <row r="175">
@@ -3347,7 +3347,7 @@
         <v>40791</v>
       </c>
       <c r="B175" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0.09596877435315963</v>
+        <v>-0.4867060672685549</v>
       </c>
     </row>
     <row r="176">
@@ -3364,7 +3364,7 @@
         <v>40792</v>
       </c>
       <c r="B176" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0.8835745776652986</v>
+        <v>0.7896460337221951</v>
       </c>
     </row>
     <row r="177">
@@ -3381,7 +3381,7 @@
         <v>40793</v>
       </c>
       <c r="B177" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C177" t="n">
         <v>2</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>0.03971121697372115</v>
+        <v>0.2426379904404451</v>
       </c>
     </row>
     <row r="178">
@@ -3398,7 +3398,7 @@
         <v>40794</v>
       </c>
       <c r="B178" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C178" t="n">
         <v>3</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0.4897716760092291</v>
+        <v>0.5465313478191951</v>
       </c>
     </row>
     <row r="179">
@@ -3415,7 +3415,7 @@
         <v>40797</v>
       </c>
       <c r="B179" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C179" t="n">
         <v>6</v>
@@ -3424,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-1.366727717512241</v>
+        <v>-1.459164810880555</v>
       </c>
     </row>
     <row r="180">
@@ -3432,7 +3432,7 @@
         <v>40798</v>
       </c>
       <c r="B180" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0.8273170202858601</v>
+        <v>0.7896460337221951</v>
       </c>
     </row>
     <row r="181">
@@ -3449,16 +3449,16 @@
         <v>40799</v>
       </c>
       <c r="B181" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>1.22111992194193</v>
+        <v>0.6073100192949451</v>
       </c>
     </row>
     <row r="182">
@@ -3466,7 +3466,7 @@
         <v>40800</v>
       </c>
       <c r="B182" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C182" t="n">
         <v>2</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>0.2084838891120366</v>
+        <v>0.5465313478191951</v>
       </c>
     </row>
     <row r="183">
@@ -3483,16 +3483,16 @@
         <v>40801</v>
       </c>
       <c r="B183" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C183" t="n">
         <v>3</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>0.1522263317325981</v>
+        <v>1.275875405528195</v>
       </c>
     </row>
     <row r="184">
@@ -3500,7 +3500,7 @@
         <v>40804</v>
       </c>
       <c r="B184" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C184" t="n">
         <v>6</v>
@@ -3509,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>-2.041818406065503</v>
+        <v>-2.006172854162305</v>
       </c>
     </row>
     <row r="185">
@@ -3517,7 +3517,7 @@
         <v>40805</v>
       </c>
       <c r="B185" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>0.8273170202858601</v>
+        <v>0.5465313478191951</v>
       </c>
     </row>
     <row r="186">
@@ -3534,7 +3534,7 @@
         <v>40806</v>
       </c>
       <c r="B186" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>-0.07280389778515584</v>
+        <v>0.3034166619161951</v>
       </c>
     </row>
     <row r="187">
@@ -3551,16 +3551,16 @@
         <v>40807</v>
       </c>
       <c r="B187" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C187" t="n">
         <v>2</v>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>1.446150151459684</v>
+        <v>0.7288673622464451</v>
       </c>
     </row>
     <row r="188">
@@ -3568,16 +3568,16 @@
         <v>40808</v>
       </c>
       <c r="B188" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C188" t="n">
         <v>3</v>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>1.108604807183053</v>
+        <v>0.9112033766736951</v>
       </c>
     </row>
     <row r="189">
@@ -3585,7 +3585,7 @@
         <v>40811</v>
       </c>
       <c r="B189" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C189" t="n">
         <v>6</v>
@@ -3594,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>-1.197955045373926</v>
+        <v>-1.702279496783555</v>
       </c>
     </row>
     <row r="190">
@@ -3602,7 +3602,7 @@
         <v>40812</v>
       </c>
       <c r="B190" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>1.277377479321368</v>
+        <v>1.154318062576695</v>
       </c>
     </row>
     <row r="191">
@@ -3619,7 +3619,7 @@
         <v>40813</v>
       </c>
       <c r="B191" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
@@ -3628,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>2.064983282633507</v>
+        <v>1.154318062576695</v>
       </c>
     </row>
     <row r="192">
@@ -3636,16 +3636,16 @@
         <v>40814</v>
       </c>
       <c r="B192" t="n">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C192" t="n">
         <v>2</v>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>2.064983282633507</v>
+        <v>0.6680886907706951</v>
       </c>
     </row>
     <row r="193">
@@ -3653,7 +3653,7 @@
         <v>40815</v>
       </c>
       <c r="B193" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C193" t="n">
         <v>3</v>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>0.4335141186297906</v>
+        <v>0.6680886907706951</v>
       </c>
     </row>
     <row r="194">
@@ -3670,16 +3670,16 @@
         <v>40818</v>
       </c>
       <c r="B194" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C194" t="n">
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>-1.141697487994487</v>
+        <v>-0.3043700528413049</v>
       </c>
     </row>
     <row r="195">
@@ -3687,7 +3687,7 @@
         <v>40819</v>
       </c>
       <c r="B195" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>2.233755954771822</v>
+        <v>1.762104777334195</v>
       </c>
     </row>
     <row r="196">
@@ -3704,7 +3704,7 @@
         <v>40820</v>
       </c>
       <c r="B196" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -3713,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>1.671180380977437</v>
+        <v>1.336654077003945</v>
       </c>
     </row>
     <row r="197">
@@ -3721,16 +3721,16 @@
         <v>40821</v>
       </c>
       <c r="B197" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C197" t="n">
         <v>2</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>1.22111992194193</v>
+        <v>0.7896460337221951</v>
       </c>
     </row>
     <row r="198">
@@ -3738,7 +3738,7 @@
         <v>40822</v>
       </c>
       <c r="B198" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C198" t="n">
         <v>3</v>
@@ -3747,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>1.671180380977437</v>
+        <v>1.215096734052445</v>
       </c>
     </row>
     <row r="199">
@@ -3755,7 +3755,7 @@
         <v>40825</v>
       </c>
       <c r="B199" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C199" t="n">
         <v>6</v>
@@ -3764,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>-1.704273061788872</v>
+        <v>-2.006172854162305</v>
       </c>
     </row>
     <row r="200">
@@ -3772,16 +3772,16 @@
         <v>40826</v>
       </c>
       <c r="B200" t="n">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>1.277377479321368</v>
+        <v>0.4857526763434451</v>
       </c>
     </row>
     <row r="201">
@@ -3789,7 +3789,7 @@
         <v>40827</v>
       </c>
       <c r="B201" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>0.8835745776652986</v>
+        <v>0.4857526763434451</v>
       </c>
     </row>
     <row r="202">
@@ -3806,16 +3806,16 @@
         <v>40828</v>
       </c>
       <c r="B202" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C202" t="n">
         <v>2</v>
       </c>
       <c r="D202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>1.446150151459684</v>
+        <v>0.7288673622464451</v>
       </c>
     </row>
     <row r="203">
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>2.627558856427892</v>
+        <v>2.977678206849195</v>
       </c>
     </row>
     <row r="204">
@@ -3840,7 +3840,7 @@
         <v>40832</v>
       </c>
       <c r="B204" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C204" t="n">
         <v>6</v>
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>-1.141697487994487</v>
+        <v>-1.033714110550305</v>
       </c>
     </row>
     <row r="205">
@@ -3857,7 +3857,7 @@
         <v>40833</v>
       </c>
       <c r="B205" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>0.4335141186297906</v>
+        <v>-0.1220340384140549</v>
       </c>
     </row>
     <row r="206">
@@ -3874,16 +3874,16 @@
         <v>40834</v>
       </c>
       <c r="B206" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
       </c>
       <c r="D206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>1.333635036700807</v>
+        <v>0.6073100192949451</v>
       </c>
     </row>
     <row r="207">
@@ -3891,16 +3891,16 @@
         <v>40835</v>
       </c>
       <c r="B207" t="n">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C207" t="n">
         <v>2</v>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207" t="n">
-        <v>2.177498397392384</v>
+        <v>0.9112033766736951</v>
       </c>
     </row>
     <row r="208">
@@ -3908,16 +3908,16 @@
         <v>40836</v>
       </c>
       <c r="B208" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C208" t="n">
         <v>3</v>
       </c>
       <c r="D208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>1.389892594080245</v>
+        <v>0.4249740048676951</v>
       </c>
     </row>
     <row r="209">
@@ -3925,7 +3925,7 @@
         <v>40839</v>
       </c>
       <c r="B209" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C209" t="n">
         <v>6</v>
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>-1.42298527489168</v>
+        <v>-1.519943482356305</v>
       </c>
     </row>
     <row r="210">
@@ -3942,7 +3942,7 @@
         <v>40840</v>
       </c>
       <c r="B210" t="n">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>1.839953053115753</v>
+        <v>1.093539391100945</v>
       </c>
     </row>
     <row r="211">
@@ -3959,16 +3959,16 @@
         <v>40841</v>
       </c>
       <c r="B211" t="n">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>1.783695495736314</v>
+        <v>-0.0004766954625549003</v>
       </c>
     </row>
     <row r="212">
@@ -3976,16 +3976,16 @@
         <v>40842</v>
       </c>
       <c r="B212" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C212" t="n">
         <v>2</v>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>1.22111992194193</v>
+        <v>0.3641953333919451</v>
       </c>
     </row>
     <row r="213">
@@ -3993,7 +3993,7 @@
         <v>40843</v>
       </c>
       <c r="B213" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C213" t="n">
         <v>3</v>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>0.7148019055269831</v>
+        <v>0.6073100192949451</v>
       </c>
     </row>
     <row r="214">
@@ -4010,7 +4010,7 @@
         <v>40846</v>
       </c>
       <c r="B214" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C214" t="n">
         <v>6</v>
@@ -4019,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>-1.085439930615049</v>
+        <v>-1.459164810880555</v>
       </c>
     </row>
     <row r="215">
@@ -4027,7 +4027,7 @@
         <v>40847</v>
       </c>
       <c r="B215" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="E215" t="n">
-        <v>0.7148019055269831</v>
+        <v>0.4857526763434451</v>
       </c>
     </row>
     <row r="216">
@@ -4044,7 +4044,7 @@
         <v>40848</v>
       </c>
       <c r="B216" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>-0.3540916846823483</v>
+        <v>-0.7298207531715549</v>
       </c>
     </row>
     <row r="217">
@@ -4061,7 +4061,7 @@
         <v>40849</v>
       </c>
       <c r="B217" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C217" t="n">
         <v>2</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>0.8835745776652986</v>
+        <v>0.3034166619161951</v>
       </c>
     </row>
     <row r="218">
@@ -4078,7 +4078,7 @@
         <v>40850</v>
       </c>
       <c r="B218" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C218" t="n">
         <v>3</v>
@@ -4087,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>1.839953053115753</v>
+        <v>1.701326105858445</v>
       </c>
     </row>
     <row r="219">
@@ -4095,7 +4095,7 @@
         <v>40853</v>
       </c>
       <c r="B219" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C219" t="n">
         <v>6</v>
@@ -4104,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>-1.42298527489168</v>
+        <v>-1.702279496783555</v>
       </c>
     </row>
     <row r="220">
@@ -4112,7 +4112,7 @@
         <v>40854</v>
       </c>
       <c r="B220" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>1.389892594080245</v>
+        <v>1.397432748479695</v>
       </c>
     </row>
     <row r="221">
@@ -4129,16 +4129,16 @@
         <v>40855</v>
       </c>
       <c r="B221" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>0.3772565612503521</v>
+        <v>1.579768762906945</v>
       </c>
     </row>
     <row r="222">
@@ -4146,7 +4146,7 @@
         <v>40856</v>
       </c>
       <c r="B222" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C222" t="n">
         <v>2</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>0.5460292333886676</v>
+        <v>0.0603019760131951</v>
       </c>
     </row>
     <row r="223">
@@ -4163,7 +4163,7 @@
         <v>40857</v>
       </c>
       <c r="B223" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C223" t="n">
         <v>3</v>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>-0.01654634040571734</v>
+        <v>-0.1828127098898049</v>
       </c>
     </row>
     <row r="224">
@@ -4180,7 +4180,7 @@
         <v>40860</v>
       </c>
       <c r="B224" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C224" t="n">
         <v>6</v>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="E224" t="n">
-        <v>-1.760530619168311</v>
+        <v>-1.398386139404805</v>
       </c>
     </row>
     <row r="225">
@@ -4197,7 +4197,7 @@
         <v>40861</v>
       </c>
       <c r="B225" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="E225" t="n">
-        <v>0.2084838891120366</v>
+        <v>0.0603019760131951</v>
       </c>
     </row>
     <row r="226">
@@ -4214,7 +4214,7 @@
         <v>40862</v>
       </c>
       <c r="B226" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>0.3209990038709136</v>
+        <v>0.4249740048676951</v>
       </c>
     </row>
     <row r="227">
@@ -4231,7 +4231,7 @@
         <v>40863</v>
       </c>
       <c r="B227" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C227" t="n">
         <v>2</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.5791219142001023</v>
+        <v>-0.6690420816958049</v>
       </c>
     </row>
     <row r="228">
@@ -4248,16 +4248,16 @@
         <v>40864</v>
       </c>
       <c r="B228" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C228" t="n">
         <v>3</v>
       </c>
       <c r="D228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>1.502407708839122</v>
+        <v>0.9112033766736951</v>
       </c>
     </row>
     <row r="229">
@@ -4265,7 +4265,7 @@
         <v>40867</v>
       </c>
       <c r="B229" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C229" t="n">
         <v>6</v>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>-1.310470160132803</v>
+        <v>-1.033714110550305</v>
       </c>
     </row>
     <row r="230">
@@ -4282,7 +4282,7 @@
         <v>40868</v>
       </c>
       <c r="B230" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>0.8835745776652986</v>
+        <v>0.5465313478191951</v>
       </c>
     </row>
     <row r="231">
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>0.5460292333886676</v>
+        <v>0.7288673622464451</v>
       </c>
     </row>
     <row r="232">
@@ -4316,7 +4316,7 @@
         <v>40870</v>
       </c>
       <c r="B232" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C232" t="n">
         <v>2</v>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>-0.4666067994412253</v>
+        <v>-0.4259273957928049</v>
       </c>
     </row>
     <row r="233">
@@ -4333,7 +4333,7 @@
         <v>40871</v>
       </c>
       <c r="B233" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C233" t="n">
         <v>3</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>0.5460292333886676</v>
+        <v>-0.1220340384140549</v>
       </c>
     </row>
     <row r="234">
@@ -4350,7 +4350,7 @@
         <v>40874</v>
       </c>
       <c r="B234" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C234" t="n">
         <v>6</v>
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>-1.197955045373926</v>
+        <v>-1.216050124977555</v>
       </c>
     </row>
     <row r="235">
@@ -4367,7 +4367,7 @@
         <v>40875</v>
       </c>
       <c r="B235" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="E235" t="n">
-        <v>0.03971121697372115</v>
+        <v>-0.0612553669383049</v>
       </c>
     </row>
     <row r="236">
@@ -4384,7 +4384,7 @@
         <v>40876</v>
       </c>
       <c r="B236" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>0.03971121697372115</v>
+        <v>-0.3651487243170549</v>
       </c>
     </row>
     <row r="237">
@@ -4401,7 +4401,7 @@
         <v>40877</v>
       </c>
       <c r="B237" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C237" t="n">
         <v>2</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>0.2084838891120366</v>
+        <v>-0.3651487243170549</v>
       </c>
     </row>
     <row r="238">
@@ -4418,7 +4418,7 @@
         <v>40878</v>
       </c>
       <c r="B238" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C238" t="n">
         <v>3</v>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>-0.8041521437178563</v>
+        <v>-0.5474847387443049</v>
       </c>
     </row>
     <row r="239">
@@ -4435,7 +4435,7 @@
         <v>40881</v>
       </c>
       <c r="B239" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C239" t="n">
         <v>6</v>
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-1.366727717512241</v>
+        <v>-1.519943482356305</v>
       </c>
     </row>
     <row r="240">
@@ -4452,7 +4452,7 @@
         <v>40882</v>
       </c>
       <c r="B240" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>0.3209990038709136</v>
+        <v>-0.0612553669383049</v>
       </c>
     </row>
     <row r="241">
@@ -4469,16 +4469,16 @@
         <v>40883</v>
       </c>
       <c r="B241" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>1.108604807183053</v>
+        <v>0.1818593189646951</v>
       </c>
     </row>
     <row r="242">
@@ -4486,7 +4486,7 @@
         <v>40884</v>
       </c>
       <c r="B242" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C242" t="n">
         <v>2</v>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>0.09596877435315963</v>
+        <v>0.9719820481494451</v>
       </c>
     </row>
     <row r="243">
@@ -4503,7 +4503,7 @@
         <v>40885</v>
       </c>
       <c r="B243" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C243" t="n">
         <v>3</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>0.5460292333886676</v>
+        <v>-0.2435913813655549</v>
       </c>
     </row>
     <row r="244">
@@ -4520,7 +4520,7 @@
         <v>40888</v>
       </c>
       <c r="B244" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C244" t="n">
         <v>6</v>
@@ -4529,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>-1.535500389650557</v>
+        <v>-1.702279496783555</v>
       </c>
     </row>
     <row r="245">
@@ -4537,16 +4537,16 @@
         <v>40889</v>
       </c>
       <c r="B245" t="n">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E245" t="n">
-        <v>1.164862364562491</v>
+        <v>0.4249740048676951</v>
       </c>
     </row>
     <row r="246">
@@ -4554,7 +4554,7 @@
         <v>40890</v>
       </c>
       <c r="B246" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>0.4897716760092291</v>
+        <v>-0.3651487243170549</v>
       </c>
     </row>
     <row r="247">
@@ -4571,7 +4571,7 @@
         <v>40891</v>
       </c>
       <c r="B247" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C247" t="n">
         <v>2</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.1290614551645943</v>
+        <v>-0.3651487243170549</v>
       </c>
     </row>
     <row r="248">
@@ -4588,7 +4588,7 @@
         <v>40892</v>
       </c>
       <c r="B248" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C248" t="n">
         <v>3</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>0.1522263317325981</v>
+        <v>0.1210806474889451</v>
       </c>
     </row>
     <row r="249">
@@ -4605,7 +4605,7 @@
         <v>40895</v>
       </c>
       <c r="B249" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C249" t="n">
         <v>6</v>
@@ -4614,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>-1.591757947029995</v>
+        <v>-1.702279496783555</v>
       </c>
     </row>
     <row r="250">
@@ -4622,7 +4622,7 @@
         <v>40896</v>
       </c>
       <c r="B250" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="E250" t="n">
-        <v>0.9398321350447371</v>
+        <v>-0.2435913813655549</v>
       </c>
     </row>
     <row r="251">
@@ -4639,7 +4639,7 @@
         <v>40897</v>
       </c>
       <c r="B251" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="E251" t="n">
-        <v>0.03971121697372115</v>
+        <v>-0.4867060672685549</v>
       </c>
     </row>
     <row r="252">
@@ -4656,16 +4656,16 @@
         <v>40898</v>
       </c>
       <c r="B252" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C252" t="n">
         <v>2</v>
       </c>
       <c r="D252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E252" t="n">
-        <v>-1.02918237323561</v>
+        <v>-0.1828127098898049</v>
       </c>
     </row>
     <row r="253">
@@ -4673,16 +4673,16 @@
         <v>40899</v>
       </c>
       <c r="B253" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C253" t="n">
         <v>3</v>
       </c>
       <c r="D253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>-1.197955045373926</v>
+        <v>-0.6690420816958049</v>
       </c>
     </row>
     <row r="254">
@@ -4690,16 +4690,16 @@
         <v>40904</v>
       </c>
       <c r="B254" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>-0.1290614551645943</v>
+        <v>-1.155271453501805</v>
       </c>
     </row>
     <row r="255">
@@ -4707,16 +4707,16 @@
         <v>40905</v>
       </c>
       <c r="B255" t="n">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C255" t="n">
         <v>2</v>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>0.3209990038709136</v>
+        <v>2.552227506518945</v>
       </c>
     </row>
     <row r="256">
@@ -4724,16 +4724,16 @@
         <v>40906</v>
       </c>
       <c r="B256" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C256" t="n">
         <v>3</v>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>0.3772565612503521</v>
+        <v>2.977678206849195</v>
       </c>
     </row>
   </sheetData>
@@ -9929,10 +9929,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -9945,10 +9945,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
@@ -9978,16 +9978,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1293532338308458</v>
+        <v>0.0945273631840796</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2495619896123929</v>
+        <v>0.1823722231782871</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3768115942028986</v>
+        <v>0.2835820895522388</v>
       </c>
     </row>
     <row r="8">
@@ -10013,10 +10013,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.289408866995074</v>
+        <v>1.245901639344262</v>
       </c>
       <c r="D9" t="n">
-        <v>0.009199153392445893</v>
+        <v>0.5117273347062032</v>
       </c>
     </row>
     <row r="11">
@@ -10046,10 +10046,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C12" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D12" t="n">
         <v>201</v>
@@ -10085,10 +10085,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.2375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7247137451471817</v>
+        <v>0.6808823529411765</v>
       </c>
     </row>
     <row r="16">
@@ -10101,10 +10101,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6627450980392157</v>
+        <v>0.6235294117647059</v>
       </c>
     </row>
     <row r="17">
@@ -10117,10 +10117,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3768115942028986</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6858042515744027</v>
+        <v>0.6470364074496104</v>
       </c>
     </row>
     <row r="19">
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08939809695987311</v>
+        <v>0.09815547153152586</v>
       </c>
     </row>
     <row r="22">
@@ -10177,10 +10177,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>53.29411764705883</v>
+        <v>51.0078431372549</v>
       </c>
       <c r="D24" t="n">
-        <v>17.77538959353199</v>
+        <v>16.4531401512945</v>
       </c>
     </row>
   </sheetData>
@@ -10219,7 +10219,7 @@
         <v>40544</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -10227,7 +10227,7 @@
         <v>40545</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -10235,7 +10235,7 @@
         <v>40546</v>
       </c>
       <c r="B4" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -10243,7 +10243,7 @@
         <v>40547</v>
       </c>
       <c r="B5" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -10251,7 +10251,7 @@
         <v>40548</v>
       </c>
       <c r="B6" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -10259,7 +10259,7 @@
         <v>40549</v>
       </c>
       <c r="B7" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -10267,7 +10267,7 @@
         <v>40550</v>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -10275,7 +10275,7 @@
         <v>40551</v>
       </c>
       <c r="B9" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -10283,7 +10283,7 @@
         <v>40552</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -10291,7 +10291,7 @@
         <v>40553</v>
       </c>
       <c r="B11" t="n">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -10299,7 +10299,7 @@
         <v>40554</v>
       </c>
       <c r="B12" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -10307,7 +10307,7 @@
         <v>40555</v>
       </c>
       <c r="B13" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
@@ -10315,7 +10315,7 @@
         <v>40556</v>
       </c>
       <c r="B14" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -10323,7 +10323,7 @@
         <v>40557</v>
       </c>
       <c r="B15" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
@@ -10331,7 +10331,7 @@
         <v>40558</v>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -10347,7 +10347,7 @@
         <v>40560</v>
       </c>
       <c r="B18" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -10355,7 +10355,7 @@
         <v>40561</v>
       </c>
       <c r="B19" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -10363,7 +10363,7 @@
         <v>40562</v>
       </c>
       <c r="B20" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -10371,7 +10371,7 @@
         <v>40563</v>
       </c>
       <c r="B21" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
@@ -10379,7 +10379,7 @@
         <v>40564</v>
       </c>
       <c r="B22" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -10387,7 +10387,7 @@
         <v>40565</v>
       </c>
       <c r="B23" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -10395,7 +10395,7 @@
         <v>40566</v>
       </c>
       <c r="B24" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -10403,7 +10403,7 @@
         <v>40567</v>
       </c>
       <c r="B25" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
@@ -10411,7 +10411,7 @@
         <v>40568</v>
       </c>
       <c r="B26" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -10419,7 +10419,7 @@
         <v>40569</v>
       </c>
       <c r="B27" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -10427,7 +10427,7 @@
         <v>40570</v>
       </c>
       <c r="B28" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -10435,7 +10435,7 @@
         <v>40571</v>
       </c>
       <c r="B29" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -10443,7 +10443,7 @@
         <v>40572</v>
       </c>
       <c r="B30" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -10451,7 +10451,7 @@
         <v>40573</v>
       </c>
       <c r="B31" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
@@ -10459,7 +10459,7 @@
         <v>40574</v>
       </c>
       <c r="B32" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
@@ -10467,7 +10467,7 @@
         <v>40575</v>
       </c>
       <c r="B33" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34">
@@ -10475,7 +10475,7 @@
         <v>40576</v>
       </c>
       <c r="B34" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35">
@@ -10483,7 +10483,7 @@
         <v>40577</v>
       </c>
       <c r="B35" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
@@ -10491,7 +10491,7 @@
         <v>40578</v>
       </c>
       <c r="B36" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37">
@@ -10499,7 +10499,7 @@
         <v>40579</v>
       </c>
       <c r="B37" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
@@ -10507,7 +10507,7 @@
         <v>40580</v>
       </c>
       <c r="B38" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
@@ -10515,7 +10515,7 @@
         <v>40581</v>
       </c>
       <c r="B39" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40">
@@ -10531,7 +10531,7 @@
         <v>40583</v>
       </c>
       <c r="B41" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
@@ -10539,7 +10539,7 @@
         <v>40584</v>
       </c>
       <c r="B42" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43">
@@ -10547,7 +10547,7 @@
         <v>40585</v>
       </c>
       <c r="B43" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44">
@@ -10555,7 +10555,7 @@
         <v>40586</v>
       </c>
       <c r="B44" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
@@ -10563,7 +10563,7 @@
         <v>40587</v>
       </c>
       <c r="B45" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -10571,7 +10571,7 @@
         <v>40588</v>
       </c>
       <c r="B46" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47">
@@ -10579,7 +10579,7 @@
         <v>40589</v>
       </c>
       <c r="B47" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48">
@@ -10587,7 +10587,7 @@
         <v>40590</v>
       </c>
       <c r="B48" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49">
@@ -10595,7 +10595,7 @@
         <v>40591</v>
       </c>
       <c r="B49" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50">
@@ -10603,7 +10603,7 @@
         <v>40592</v>
       </c>
       <c r="B50" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51">
@@ -10611,7 +10611,7 @@
         <v>40593</v>
       </c>
       <c r="B51" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -10619,7 +10619,7 @@
         <v>40594</v>
       </c>
       <c r="B52" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
@@ -10635,7 +10635,7 @@
         <v>40596</v>
       </c>
       <c r="B54" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55">
@@ -10643,7 +10643,7 @@
         <v>40597</v>
       </c>
       <c r="B55" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56">
@@ -10651,7 +10651,7 @@
         <v>40598</v>
       </c>
       <c r="B56" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57">
@@ -10659,7 +10659,7 @@
         <v>40599</v>
       </c>
       <c r="B57" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58">
@@ -10667,7 +10667,7 @@
         <v>40600</v>
       </c>
       <c r="B58" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -10675,7 +10675,7 @@
         <v>40601</v>
       </c>
       <c r="B59" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
@@ -10683,7 +10683,7 @@
         <v>40602</v>
       </c>
       <c r="B60" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61">
@@ -10691,7 +10691,7 @@
         <v>40603</v>
       </c>
       <c r="B61" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62">
@@ -10699,7 +10699,7 @@
         <v>40604</v>
       </c>
       <c r="B62" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63">
@@ -10707,7 +10707,7 @@
         <v>40605</v>
       </c>
       <c r="B63" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64">
@@ -10715,7 +10715,7 @@
         <v>40606</v>
       </c>
       <c r="B64" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65">
@@ -10723,7 +10723,7 @@
         <v>40607</v>
       </c>
       <c r="B65" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
@@ -10731,7 +10731,7 @@
         <v>40608</v>
       </c>
       <c r="B66" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -10739,7 +10739,7 @@
         <v>40609</v>
       </c>
       <c r="B67" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68">
@@ -10747,7 +10747,7 @@
         <v>40610</v>
       </c>
       <c r="B68" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69">
@@ -10755,7 +10755,7 @@
         <v>40611</v>
       </c>
       <c r="B69" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70">
@@ -10771,7 +10771,7 @@
         <v>40613</v>
       </c>
       <c r="B71" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72">
@@ -10787,7 +10787,7 @@
         <v>40615</v>
       </c>
       <c r="B73" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
@@ -10795,7 +10795,7 @@
         <v>40616</v>
       </c>
       <c r="B74" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75">
@@ -10803,7 +10803,7 @@
         <v>40617</v>
       </c>
       <c r="B75" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76">
@@ -10811,7 +10811,7 @@
         <v>40618</v>
       </c>
       <c r="B76" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77">
@@ -10819,7 +10819,7 @@
         <v>40619</v>
       </c>
       <c r="B77" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78">
@@ -10827,7 +10827,7 @@
         <v>40620</v>
       </c>
       <c r="B78" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79">
@@ -10835,7 +10835,7 @@
         <v>40621</v>
       </c>
       <c r="B79" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80">
@@ -10843,7 +10843,7 @@
         <v>40622</v>
       </c>
       <c r="B80" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
@@ -10851,7 +10851,7 @@
         <v>40623</v>
       </c>
       <c r="B81" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82">
@@ -10867,7 +10867,7 @@
         <v>40625</v>
       </c>
       <c r="B83" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84">
@@ -10875,7 +10875,7 @@
         <v>40626</v>
       </c>
       <c r="B84" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85">
@@ -10883,7 +10883,7 @@
         <v>40627</v>
       </c>
       <c r="B85" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86">
@@ -10891,7 +10891,7 @@
         <v>40628</v>
       </c>
       <c r="B86" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87">
@@ -10899,7 +10899,7 @@
         <v>40629</v>
       </c>
       <c r="B87" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
@@ -10907,7 +10907,7 @@
         <v>40630</v>
       </c>
       <c r="B88" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89">
@@ -10915,7 +10915,7 @@
         <v>40631</v>
       </c>
       <c r="B89" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90">
@@ -10923,7 +10923,7 @@
         <v>40632</v>
       </c>
       <c r="B90" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91">
@@ -10931,7 +10931,7 @@
         <v>40633</v>
       </c>
       <c r="B91" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92">
@@ -10939,7 +10939,7 @@
         <v>40634</v>
       </c>
       <c r="B92" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93">
@@ -10947,7 +10947,7 @@
         <v>40635</v>
       </c>
       <c r="B93" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
@@ -10955,7 +10955,7 @@
         <v>40636</v>
       </c>
       <c r="B94" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
@@ -10963,7 +10963,7 @@
         <v>40637</v>
       </c>
       <c r="B95" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96">
@@ -10971,7 +10971,7 @@
         <v>40638</v>
       </c>
       <c r="B96" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97">
@@ -10979,7 +10979,7 @@
         <v>40639</v>
       </c>
       <c r="B97" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98">
@@ -10987,7 +10987,7 @@
         <v>40640</v>
       </c>
       <c r="B98" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99">
@@ -10995,7 +10995,7 @@
         <v>40641</v>
       </c>
       <c r="B99" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100">
@@ -11003,7 +11003,7 @@
         <v>40642</v>
       </c>
       <c r="B100" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101">
@@ -11011,7 +11011,7 @@
         <v>40643</v>
       </c>
       <c r="B101" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102">
@@ -11019,7 +11019,7 @@
         <v>40644</v>
       </c>
       <c r="B102" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103">
@@ -11035,7 +11035,7 @@
         <v>40646</v>
       </c>
       <c r="B104" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105">
@@ -11043,7 +11043,7 @@
         <v>40647</v>
       </c>
       <c r="B105" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106">
@@ -11051,7 +11051,7 @@
         <v>40648</v>
       </c>
       <c r="B106" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107">
@@ -11059,7 +11059,7 @@
         <v>40649</v>
       </c>
       <c r="B107" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
@@ -11067,7 +11067,7 @@
         <v>40650</v>
       </c>
       <c r="B108" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109">
@@ -11075,7 +11075,7 @@
         <v>40651</v>
       </c>
       <c r="B109" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="110">
@@ -11083,7 +11083,7 @@
         <v>40652</v>
       </c>
       <c r="B110" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111">
@@ -11091,7 +11091,7 @@
         <v>40653</v>
       </c>
       <c r="B111" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112">
@@ -11099,7 +11099,7 @@
         <v>40654</v>
       </c>
       <c r="B112" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113">
@@ -11107,7 +11107,7 @@
         <v>40655</v>
       </c>
       <c r="B113" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114">
@@ -11115,7 +11115,7 @@
         <v>40656</v>
       </c>
       <c r="B114" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115">
@@ -11123,7 +11123,7 @@
         <v>40657</v>
       </c>
       <c r="B115" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
@@ -11131,7 +11131,7 @@
         <v>40658</v>
       </c>
       <c r="B116" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
@@ -11147,7 +11147,7 @@
         <v>40660</v>
       </c>
       <c r="B118" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119">
@@ -11155,7 +11155,7 @@
         <v>40661</v>
       </c>
       <c r="B119" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120">
@@ -11163,7 +11163,7 @@
         <v>40662</v>
       </c>
       <c r="B120" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121">
@@ -11171,7 +11171,7 @@
         <v>40663</v>
       </c>
       <c r="B121" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122">
@@ -11179,7 +11179,7 @@
         <v>40664</v>
       </c>
       <c r="B122" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123">
@@ -11187,7 +11187,7 @@
         <v>40665</v>
       </c>
       <c r="B123" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124">
@@ -11195,7 +11195,7 @@
         <v>40666</v>
       </c>
       <c r="B124" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125">
@@ -11203,7 +11203,7 @@
         <v>40667</v>
       </c>
       <c r="B125" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126">
@@ -11219,7 +11219,7 @@
         <v>40669</v>
       </c>
       <c r="B127" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128">
@@ -11227,7 +11227,7 @@
         <v>40670</v>
       </c>
       <c r="B128" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129">
@@ -11235,7 +11235,7 @@
         <v>40671</v>
       </c>
       <c r="B129" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130">
@@ -11243,7 +11243,7 @@
         <v>40672</v>
       </c>
       <c r="B130" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131">
@@ -11251,7 +11251,7 @@
         <v>40673</v>
       </c>
       <c r="B131" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132">
@@ -11259,7 +11259,7 @@
         <v>40674</v>
       </c>
       <c r="B132" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="133">
@@ -11267,7 +11267,7 @@
         <v>40675</v>
       </c>
       <c r="B133" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134">
@@ -11275,7 +11275,7 @@
         <v>40676</v>
       </c>
       <c r="B134" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135">
@@ -11283,7 +11283,7 @@
         <v>40677</v>
       </c>
       <c r="B135" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136">
@@ -11291,7 +11291,7 @@
         <v>40678</v>
       </c>
       <c r="B136" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
@@ -11299,7 +11299,7 @@
         <v>40679</v>
       </c>
       <c r="B137" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="138">
@@ -11307,7 +11307,7 @@
         <v>40680</v>
       </c>
       <c r="B138" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139">
@@ -11315,7 +11315,7 @@
         <v>40681</v>
       </c>
       <c r="B139" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="140">
@@ -11323,7 +11323,7 @@
         <v>40682</v>
       </c>
       <c r="B140" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="141">
@@ -11331,7 +11331,7 @@
         <v>40683</v>
       </c>
       <c r="B141" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142">
@@ -11339,7 +11339,7 @@
         <v>40684</v>
       </c>
       <c r="B142" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143">
@@ -11347,7 +11347,7 @@
         <v>40685</v>
       </c>
       <c r="B143" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144">
@@ -11355,7 +11355,7 @@
         <v>40686</v>
       </c>
       <c r="B144" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145">
@@ -11363,7 +11363,7 @@
         <v>40687</v>
       </c>
       <c r="B145" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="146">
@@ -11371,7 +11371,7 @@
         <v>40688</v>
       </c>
       <c r="B146" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="147">
@@ -11379,7 +11379,7 @@
         <v>40689</v>
       </c>
       <c r="B147" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="148">
@@ -11387,7 +11387,7 @@
         <v>40690</v>
       </c>
       <c r="B148" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149">
@@ -11395,7 +11395,7 @@
         <v>40691</v>
       </c>
       <c r="B149" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150">
@@ -11403,7 +11403,7 @@
         <v>40692</v>
       </c>
       <c r="B150" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151">
@@ -11411,7 +11411,7 @@
         <v>40693</v>
       </c>
       <c r="B151" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="152">
@@ -11419,7 +11419,7 @@
         <v>40694</v>
       </c>
       <c r="B152" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="153">
@@ -11427,7 +11427,7 @@
         <v>40695</v>
       </c>
       <c r="B153" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="154">
@@ -11435,7 +11435,7 @@
         <v>40696</v>
       </c>
       <c r="B154" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155">
@@ -11443,7 +11443,7 @@
         <v>40697</v>
       </c>
       <c r="B155" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156">
@@ -11451,7 +11451,7 @@
         <v>40698</v>
       </c>
       <c r="B156" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157">
@@ -11459,7 +11459,7 @@
         <v>40699</v>
       </c>
       <c r="B157" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="158">
@@ -11467,7 +11467,7 @@
         <v>40700</v>
       </c>
       <c r="B158" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159">
@@ -11475,7 +11475,7 @@
         <v>40701</v>
       </c>
       <c r="B159" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="160">
@@ -11483,7 +11483,7 @@
         <v>40702</v>
       </c>
       <c r="B160" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="161">
@@ -11491,7 +11491,7 @@
         <v>40703</v>
       </c>
       <c r="B161" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162">
@@ -11499,7 +11499,7 @@
         <v>40704</v>
       </c>
       <c r="B162" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="163">
@@ -11507,7 +11507,7 @@
         <v>40705</v>
       </c>
       <c r="B163" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164">
@@ -11515,7 +11515,7 @@
         <v>40706</v>
       </c>
       <c r="B164" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="165">
@@ -11523,7 +11523,7 @@
         <v>40707</v>
       </c>
       <c r="B165" t="n">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="166">
@@ -11531,7 +11531,7 @@
         <v>40708</v>
       </c>
       <c r="B166" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="167">
@@ -11547,7 +11547,7 @@
         <v>40710</v>
       </c>
       <c r="B168" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169">
@@ -11555,7 +11555,7 @@
         <v>40711</v>
       </c>
       <c r="B169" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="170">
@@ -11563,7 +11563,7 @@
         <v>40712</v>
       </c>
       <c r="B170" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171">
@@ -11571,7 +11571,7 @@
         <v>40713</v>
       </c>
       <c r="B171" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="172">
@@ -11579,7 +11579,7 @@
         <v>40714</v>
       </c>
       <c r="B172" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="173">
@@ -11587,7 +11587,7 @@
         <v>40715</v>
       </c>
       <c r="B173" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174">
@@ -11595,7 +11595,7 @@
         <v>40716</v>
       </c>
       <c r="B174" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175">
@@ -11603,7 +11603,7 @@
         <v>40717</v>
       </c>
       <c r="B175" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176">
@@ -11611,7 +11611,7 @@
         <v>40718</v>
       </c>
       <c r="B176" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="177">
@@ -11619,7 +11619,7 @@
         <v>40719</v>
       </c>
       <c r="B177" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
@@ -11627,7 +11627,7 @@
         <v>40720</v>
       </c>
       <c r="B178" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="179">
@@ -11635,7 +11635,7 @@
         <v>40721</v>
       </c>
       <c r="B179" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="180">
@@ -11643,7 +11643,7 @@
         <v>40722</v>
       </c>
       <c r="B180" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="181">
@@ -11651,7 +11651,7 @@
         <v>40723</v>
       </c>
       <c r="B181" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182">
@@ -11659,7 +11659,7 @@
         <v>40724</v>
       </c>
       <c r="B182" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="183">
@@ -11667,7 +11667,7 @@
         <v>40725</v>
       </c>
       <c r="B183" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="184">
@@ -11675,7 +11675,7 @@
         <v>40726</v>
       </c>
       <c r="B184" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185">
@@ -11683,7 +11683,7 @@
         <v>40727</v>
       </c>
       <c r="B185" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186">
@@ -11699,7 +11699,7 @@
         <v>40729</v>
       </c>
       <c r="B187" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="188">
@@ -11707,7 +11707,7 @@
         <v>40730</v>
       </c>
       <c r="B188" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="189">
@@ -11715,7 +11715,7 @@
         <v>40731</v>
       </c>
       <c r="B189" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="190">
@@ -11723,7 +11723,7 @@
         <v>40732</v>
       </c>
       <c r="B190" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="191">
@@ -11731,7 +11731,7 @@
         <v>40733</v>
       </c>
       <c r="B191" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192">
@@ -11747,7 +11747,7 @@
         <v>40735</v>
       </c>
       <c r="B193" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="194">
@@ -11755,7 +11755,7 @@
         <v>40736</v>
       </c>
       <c r="B194" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="195">
@@ -11763,7 +11763,7 @@
         <v>40737</v>
       </c>
       <c r="B195" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="196">
@@ -11771,7 +11771,7 @@
         <v>40738</v>
       </c>
       <c r="B196" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="197">
@@ -11779,7 +11779,7 @@
         <v>40739</v>
       </c>
       <c r="B197" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="198">
@@ -11787,7 +11787,7 @@
         <v>40740</v>
       </c>
       <c r="B198" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199">
@@ -11795,7 +11795,7 @@
         <v>40741</v>
       </c>
       <c r="B199" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="200">
@@ -11803,7 +11803,7 @@
         <v>40742</v>
       </c>
       <c r="B200" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="201">
@@ -11811,7 +11811,7 @@
         <v>40743</v>
       </c>
       <c r="B201" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202">
@@ -11819,7 +11819,7 @@
         <v>40744</v>
       </c>
       <c r="B202" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="203">
@@ -11827,7 +11827,7 @@
         <v>40745</v>
       </c>
       <c r="B203" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="204">
@@ -11835,7 +11835,7 @@
         <v>40746</v>
       </c>
       <c r="B204" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="205">
@@ -11843,7 +11843,7 @@
         <v>40747</v>
       </c>
       <c r="B205" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="206">
@@ -11851,7 +11851,7 @@
         <v>40748</v>
       </c>
       <c r="B206" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207">
@@ -11859,7 +11859,7 @@
         <v>40749</v>
       </c>
       <c r="B207" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="208">
@@ -11867,7 +11867,7 @@
         <v>40750</v>
       </c>
       <c r="B208" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="209">
@@ -11875,7 +11875,7 @@
         <v>40751</v>
       </c>
       <c r="B209" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="210">
@@ -11883,7 +11883,7 @@
         <v>40752</v>
       </c>
       <c r="B210" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="211">
@@ -11891,7 +11891,7 @@
         <v>40753</v>
       </c>
       <c r="B211" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="212">
@@ -11899,7 +11899,7 @@
         <v>40754</v>
       </c>
       <c r="B212" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213">
@@ -11907,7 +11907,7 @@
         <v>40755</v>
       </c>
       <c r="B213" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214">
@@ -11915,7 +11915,7 @@
         <v>40756</v>
       </c>
       <c r="B214" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="215">
@@ -11923,7 +11923,7 @@
         <v>40757</v>
       </c>
       <c r="B215" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="216">
@@ -11931,7 +11931,7 @@
         <v>40758</v>
       </c>
       <c r="B216" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="217">
@@ -11939,7 +11939,7 @@
         <v>40759</v>
       </c>
       <c r="B217" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="218">
@@ -11947,7 +11947,7 @@
         <v>40760</v>
       </c>
       <c r="B218" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="219">
@@ -11955,7 +11955,7 @@
         <v>40761</v>
       </c>
       <c r="B219" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="220">
@@ -11963,7 +11963,7 @@
         <v>40762</v>
       </c>
       <c r="B220" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221">
@@ -11971,7 +11971,7 @@
         <v>40763</v>
       </c>
       <c r="B221" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="222">
@@ -11979,7 +11979,7 @@
         <v>40764</v>
       </c>
       <c r="B222" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="223">
@@ -11987,7 +11987,7 @@
         <v>40765</v>
       </c>
       <c r="B223" t="n">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="224">
@@ -11995,7 +11995,7 @@
         <v>40766</v>
       </c>
       <c r="B224" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="225">
@@ -12003,7 +12003,7 @@
         <v>40767</v>
       </c>
       <c r="B225" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="226">
@@ -12011,7 +12011,7 @@
         <v>40768</v>
       </c>
       <c r="B226" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227">
@@ -12019,7 +12019,7 @@
         <v>40769</v>
       </c>
       <c r="B227" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="228">
@@ -12027,7 +12027,7 @@
         <v>40770</v>
       </c>
       <c r="B228" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="229">
@@ -12035,7 +12035,7 @@
         <v>40771</v>
       </c>
       <c r="B229" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="230">
@@ -12043,7 +12043,7 @@
         <v>40772</v>
       </c>
       <c r="B230" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="231">
@@ -12051,7 +12051,7 @@
         <v>40773</v>
       </c>
       <c r="B231" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="232">
@@ -12059,7 +12059,7 @@
         <v>40774</v>
       </c>
       <c r="B232" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="233">
@@ -12067,7 +12067,7 @@
         <v>40775</v>
       </c>
       <c r="B233" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234">
@@ -12075,7 +12075,7 @@
         <v>40776</v>
       </c>
       <c r="B234" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="235">
@@ -12083,7 +12083,7 @@
         <v>40777</v>
       </c>
       <c r="B235" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="236">
@@ -12091,7 +12091,7 @@
         <v>40778</v>
       </c>
       <c r="B236" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="237">
@@ -12099,7 +12099,7 @@
         <v>40779</v>
       </c>
       <c r="B237" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="238">
@@ -12107,7 +12107,7 @@
         <v>40780</v>
       </c>
       <c r="B238" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="239">
@@ -12123,7 +12123,7 @@
         <v>40782</v>
       </c>
       <c r="B240" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241">
@@ -12131,7 +12131,7 @@
         <v>40783</v>
       </c>
       <c r="B241" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242">
@@ -12139,7 +12139,7 @@
         <v>40784</v>
       </c>
       <c r="B242" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="243">
@@ -12147,7 +12147,7 @@
         <v>40785</v>
       </c>
       <c r="B243" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="244">
@@ -12155,7 +12155,7 @@
         <v>40786</v>
       </c>
       <c r="B244" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="245">
@@ -12163,7 +12163,7 @@
         <v>40787</v>
       </c>
       <c r="B245" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="246">
@@ -12187,7 +12187,7 @@
         <v>40790</v>
       </c>
       <c r="B248" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="249">
@@ -12195,7 +12195,7 @@
         <v>40791</v>
       </c>
       <c r="B249" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="250">
@@ -12203,7 +12203,7 @@
         <v>40792</v>
       </c>
       <c r="B250" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="251">
@@ -12211,7 +12211,7 @@
         <v>40793</v>
       </c>
       <c r="B251" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="252">
@@ -12219,7 +12219,7 @@
         <v>40794</v>
       </c>
       <c r="B252" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="253">
@@ -12227,7 +12227,7 @@
         <v>40795</v>
       </c>
       <c r="B253" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="254">
@@ -12235,7 +12235,7 @@
         <v>40796</v>
       </c>
       <c r="B254" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="255">
@@ -12243,7 +12243,7 @@
         <v>40797</v>
       </c>
       <c r="B255" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="256">
@@ -12251,7 +12251,7 @@
         <v>40798</v>
       </c>
       <c r="B256" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="257">
@@ -12259,7 +12259,7 @@
         <v>40799</v>
       </c>
       <c r="B257" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="258">
@@ -12267,7 +12267,7 @@
         <v>40800</v>
       </c>
       <c r="B258" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="259">
@@ -12275,7 +12275,7 @@
         <v>40801</v>
       </c>
       <c r="B259" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="260">
@@ -12283,7 +12283,7 @@
         <v>40802</v>
       </c>
       <c r="B260" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="261">
@@ -12291,7 +12291,7 @@
         <v>40803</v>
       </c>
       <c r="B261" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="262">
@@ -12299,7 +12299,7 @@
         <v>40804</v>
       </c>
       <c r="B262" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="263">
@@ -12307,7 +12307,7 @@
         <v>40805</v>
       </c>
       <c r="B263" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="264">
@@ -12315,7 +12315,7 @@
         <v>40806</v>
       </c>
       <c r="B264" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="265">
@@ -12323,7 +12323,7 @@
         <v>40807</v>
       </c>
       <c r="B265" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="266">
@@ -12331,7 +12331,7 @@
         <v>40808</v>
       </c>
       <c r="B266" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="267">
@@ -12339,7 +12339,7 @@
         <v>40809</v>
       </c>
       <c r="B267" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="268">
@@ -12347,7 +12347,7 @@
         <v>40810</v>
       </c>
       <c r="B268" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="269">
@@ -12355,7 +12355,7 @@
         <v>40811</v>
       </c>
       <c r="B269" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="270">
@@ -12363,7 +12363,7 @@
         <v>40812</v>
       </c>
       <c r="B270" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="271">
@@ -12371,7 +12371,7 @@
         <v>40813</v>
       </c>
       <c r="B271" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="272">
@@ -12379,7 +12379,7 @@
         <v>40814</v>
       </c>
       <c r="B272" t="n">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="273">
@@ -12387,7 +12387,7 @@
         <v>40815</v>
       </c>
       <c r="B273" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="274">
@@ -12395,7 +12395,7 @@
         <v>40816</v>
       </c>
       <c r="B274" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="275">
@@ -12403,7 +12403,7 @@
         <v>40817</v>
       </c>
       <c r="B275" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="276">
@@ -12411,7 +12411,7 @@
         <v>40818</v>
       </c>
       <c r="B276" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="277">
@@ -12419,7 +12419,7 @@
         <v>40819</v>
       </c>
       <c r="B277" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="278">
@@ -12427,7 +12427,7 @@
         <v>40820</v>
       </c>
       <c r="B278" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="279">
@@ -12435,7 +12435,7 @@
         <v>40821</v>
       </c>
       <c r="B279" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="280">
@@ -12443,7 +12443,7 @@
         <v>40822</v>
       </c>
       <c r="B280" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="281">
@@ -12451,7 +12451,7 @@
         <v>40823</v>
       </c>
       <c r="B281" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="282">
@@ -12459,7 +12459,7 @@
         <v>40824</v>
       </c>
       <c r="B282" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="283">
@@ -12467,7 +12467,7 @@
         <v>40825</v>
       </c>
       <c r="B283" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="284">
@@ -12475,7 +12475,7 @@
         <v>40826</v>
       </c>
       <c r="B284" t="n">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="285">
@@ -12483,7 +12483,7 @@
         <v>40827</v>
       </c>
       <c r="B285" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="286">
@@ -12491,7 +12491,7 @@
         <v>40828</v>
       </c>
       <c r="B286" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="287">
@@ -12507,7 +12507,7 @@
         <v>40830</v>
       </c>
       <c r="B288" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="289">
@@ -12515,7 +12515,7 @@
         <v>40831</v>
       </c>
       <c r="B289" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="290">
@@ -12523,7 +12523,7 @@
         <v>40832</v>
       </c>
       <c r="B290" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="291">
@@ -12531,7 +12531,7 @@
         <v>40833</v>
       </c>
       <c r="B291" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="292">
@@ -12539,7 +12539,7 @@
         <v>40834</v>
       </c>
       <c r="B292" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="293">
@@ -12547,7 +12547,7 @@
         <v>40835</v>
       </c>
       <c r="B293" t="n">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="294">
@@ -12555,7 +12555,7 @@
         <v>40836</v>
       </c>
       <c r="B294" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="295">
@@ -12563,7 +12563,7 @@
         <v>40837</v>
       </c>
       <c r="B295" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="296">
@@ -12571,7 +12571,7 @@
         <v>40838</v>
       </c>
       <c r="B296" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="297">
@@ -12579,7 +12579,7 @@
         <v>40839</v>
       </c>
       <c r="B297" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="298">
@@ -12587,7 +12587,7 @@
         <v>40840</v>
       </c>
       <c r="B298" t="n">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="299">
@@ -12595,7 +12595,7 @@
         <v>40841</v>
       </c>
       <c r="B299" t="n">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="300">
@@ -12603,7 +12603,7 @@
         <v>40842</v>
       </c>
       <c r="B300" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="301">
@@ -12611,7 +12611,7 @@
         <v>40843</v>
       </c>
       <c r="B301" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="302">
@@ -12619,7 +12619,7 @@
         <v>40844</v>
       </c>
       <c r="B302" t="n">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="303">
@@ -12627,7 +12627,7 @@
         <v>40845</v>
       </c>
       <c r="B303" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="304">
@@ -12635,7 +12635,7 @@
         <v>40846</v>
       </c>
       <c r="B304" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="305">
@@ -12643,7 +12643,7 @@
         <v>40847</v>
       </c>
       <c r="B305" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="306">
@@ -12651,7 +12651,7 @@
         <v>40848</v>
       </c>
       <c r="B306" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="307">
@@ -12659,7 +12659,7 @@
         <v>40849</v>
       </c>
       <c r="B307" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="308">
@@ -12667,7 +12667,7 @@
         <v>40850</v>
       </c>
       <c r="B308" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="309">
@@ -12675,7 +12675,7 @@
         <v>40851</v>
       </c>
       <c r="B309" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="310">
@@ -12683,7 +12683,7 @@
         <v>40852</v>
       </c>
       <c r="B310" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="311">
@@ -12691,7 +12691,7 @@
         <v>40853</v>
       </c>
       <c r="B311" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="312">
@@ -12699,7 +12699,7 @@
         <v>40854</v>
       </c>
       <c r="B312" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="313">
@@ -12707,7 +12707,7 @@
         <v>40855</v>
       </c>
       <c r="B313" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="314">
@@ -12715,7 +12715,7 @@
         <v>40856</v>
       </c>
       <c r="B314" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="315">
@@ -12723,7 +12723,7 @@
         <v>40857</v>
       </c>
       <c r="B315" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="316">
@@ -12731,7 +12731,7 @@
         <v>40858</v>
       </c>
       <c r="B316" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="317">
@@ -12739,7 +12739,7 @@
         <v>40859</v>
       </c>
       <c r="B317" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="318">
@@ -12747,7 +12747,7 @@
         <v>40860</v>
       </c>
       <c r="B318" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="319">
@@ -12755,7 +12755,7 @@
         <v>40861</v>
       </c>
       <c r="B319" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="320">
@@ -12763,7 +12763,7 @@
         <v>40862</v>
       </c>
       <c r="B320" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="321">
@@ -12771,7 +12771,7 @@
         <v>40863</v>
       </c>
       <c r="B321" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="322">
@@ -12779,7 +12779,7 @@
         <v>40864</v>
       </c>
       <c r="B322" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="323">
@@ -12787,7 +12787,7 @@
         <v>40865</v>
       </c>
       <c r="B323" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="324">
@@ -12795,7 +12795,7 @@
         <v>40866</v>
       </c>
       <c r="B324" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="325">
@@ -12803,7 +12803,7 @@
         <v>40867</v>
       </c>
       <c r="B325" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="326">
@@ -12811,7 +12811,7 @@
         <v>40868</v>
       </c>
       <c r="B326" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="327">
@@ -12827,7 +12827,7 @@
         <v>40870</v>
       </c>
       <c r="B328" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="329">
@@ -12835,7 +12835,7 @@
         <v>40871</v>
       </c>
       <c r="B329" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="330">
@@ -12843,7 +12843,7 @@
         <v>40872</v>
       </c>
       <c r="B330" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="331">
@@ -12851,7 +12851,7 @@
         <v>40873</v>
       </c>
       <c r="B331" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="332">
@@ -12859,7 +12859,7 @@
         <v>40874</v>
       </c>
       <c r="B332" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="333">
@@ -12867,7 +12867,7 @@
         <v>40875</v>
       </c>
       <c r="B333" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="334">
@@ -12875,7 +12875,7 @@
         <v>40876</v>
       </c>
       <c r="B334" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="335">
@@ -12883,7 +12883,7 @@
         <v>40877</v>
       </c>
       <c r="B335" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="336">
@@ -12891,7 +12891,7 @@
         <v>40878</v>
       </c>
       <c r="B336" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="337">
@@ -12899,7 +12899,7 @@
         <v>40879</v>
       </c>
       <c r="B337" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="338">
@@ -12907,7 +12907,7 @@
         <v>40880</v>
       </c>
       <c r="B338" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="339">
@@ -12915,7 +12915,7 @@
         <v>40881</v>
       </c>
       <c r="B339" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="340">
@@ -12923,7 +12923,7 @@
         <v>40882</v>
       </c>
       <c r="B340" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="341">
@@ -12931,7 +12931,7 @@
         <v>40883</v>
       </c>
       <c r="B341" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="342">
@@ -12939,7 +12939,7 @@
         <v>40884</v>
       </c>
       <c r="B342" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="343">
@@ -12947,7 +12947,7 @@
         <v>40885</v>
       </c>
       <c r="B343" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="344">
@@ -12955,7 +12955,7 @@
         <v>40886</v>
       </c>
       <c r="B344" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="345">
@@ -12963,7 +12963,7 @@
         <v>40887</v>
       </c>
       <c r="B345" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="346">
@@ -12971,7 +12971,7 @@
         <v>40888</v>
       </c>
       <c r="B346" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="347">
@@ -12979,7 +12979,7 @@
         <v>40889</v>
       </c>
       <c r="B347" t="n">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="348">
@@ -12987,7 +12987,7 @@
         <v>40890</v>
       </c>
       <c r="B348" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="349">
@@ -12995,7 +12995,7 @@
         <v>40891</v>
       </c>
       <c r="B349" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="350">
@@ -13003,7 +13003,7 @@
         <v>40892</v>
       </c>
       <c r="B350" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="351">
@@ -13011,7 +13011,7 @@
         <v>40893</v>
       </c>
       <c r="B351" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="352">
@@ -13019,7 +13019,7 @@
         <v>40894</v>
       </c>
       <c r="B352" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="353">
@@ -13027,7 +13027,7 @@
         <v>40895</v>
       </c>
       <c r="B353" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="354">
@@ -13035,7 +13035,7 @@
         <v>40896</v>
       </c>
       <c r="B354" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="355">
@@ -13043,7 +13043,7 @@
         <v>40897</v>
       </c>
       <c r="B355" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="356">
@@ -13051,7 +13051,7 @@
         <v>40898</v>
       </c>
       <c r="B356" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="357">
@@ -13059,7 +13059,7 @@
         <v>40899</v>
       </c>
       <c r="B357" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="358">
@@ -13067,7 +13067,7 @@
         <v>40900</v>
       </c>
       <c r="B358" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="359">
@@ -13075,7 +13075,7 @@
         <v>40901</v>
       </c>
       <c r="B359" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="360">
@@ -13083,7 +13083,7 @@
         <v>40902</v>
       </c>
       <c r="B360" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="361">
@@ -13091,7 +13091,7 @@
         <v>40903</v>
       </c>
       <c r="B361" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="362">
@@ -13099,7 +13099,7 @@
         <v>40904</v>
       </c>
       <c r="B362" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="363">
@@ -13107,7 +13107,7 @@
         <v>40905</v>
       </c>
       <c r="B363" t="n">
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="364">
@@ -13115,7 +13115,7 @@
         <v>40906</v>
       </c>
       <c r="B364" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="365">
@@ -13123,7 +13123,7 @@
         <v>40907</v>
       </c>
       <c r="B365" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="366">
@@ -13131,7 +13131,7 @@
         <v>40908</v>
       </c>
       <c r="B366" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/python/result_data/MTS.MC_resultados.xlsx
+++ b/python/result_data/MTS.MC_resultados.xlsx
@@ -406,7 +406,7 @@
         <v>40545</v>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
@@ -415,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.763058168259305</v>
+        <v>-1.735652024880729</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +423,7 @@
         <v>40546</v>
       </c>
       <c r="B3" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -432,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3641953333919451</v>
+        <v>-0.6051507059928979</v>
       </c>
     </row>
     <row r="4">
@@ -440,7 +440,7 @@
         <v>40547</v>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1220340384140549</v>
+        <v>-0.09128647013479267</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>40548</v>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3651487243170549</v>
+        <v>-0.81069640033614</v>
       </c>
     </row>
     <row r="6">
@@ -474,16 +474,16 @@
         <v>40549</v>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.155271453501805</v>
+        <v>-0.3482185880638453</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +491,7 @@
         <v>40552</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.431623554492555</v>
+        <v>-1.478719906951677</v>
       </c>
     </row>
     <row r="8">
@@ -508,16 +508,16 @@
         <v>40553</v>
       </c>
       <c r="B8" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.518990091431195</v>
+        <v>0.371191342137502</v>
       </c>
     </row>
     <row r="9">
@@ -525,7 +525,7 @@
         <v>40554</v>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4259273957928049</v>
+        <v>-0.2454457408922242</v>
       </c>
     </row>
     <row r="10">
@@ -542,7 +542,7 @@
         <v>40555</v>
       </c>
       <c r="B10" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1210806474889451</v>
+        <v>-0.5537642824070873</v>
       </c>
     </row>
     <row r="11">
@@ -559,7 +559,7 @@
         <v>40556</v>
       </c>
       <c r="B11" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7896460337221951</v>
+        <v>-0.09128647013479267</v>
       </c>
     </row>
     <row r="12">
@@ -576,7 +576,7 @@
         <v>40559</v>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.127730197113805</v>
+        <v>-1.83842487205235</v>
       </c>
     </row>
     <row r="13">
@@ -593,7 +593,7 @@
         <v>40560</v>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5465313478191951</v>
+        <v>-0.6051507059928979</v>
       </c>
     </row>
     <row r="14">
@@ -610,7 +610,7 @@
         <v>40561</v>
       </c>
       <c r="B14" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.3043700528413049</v>
+        <v>-0.5537642824070873</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +627,7 @@
         <v>40562</v>
       </c>
       <c r="B15" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6073100192949451</v>
+        <v>-0.6051507059928979</v>
       </c>
     </row>
     <row r="16">
@@ -644,7 +644,7 @@
         <v>40563</v>
       </c>
       <c r="B16" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0612553669383049</v>
+        <v>-0.4509914352354663</v>
       </c>
     </row>
     <row r="17">
@@ -661,7 +661,7 @@
         <v>40566</v>
       </c>
       <c r="B17" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
         <v>6</v>
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.459164810880555</v>
+        <v>-1.530106330537487</v>
       </c>
     </row>
     <row r="18">
@@ -678,16 +678,16 @@
         <v>40567</v>
       </c>
       <c r="B18" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.336654077003945</v>
+        <v>-0.2968321644780347</v>
       </c>
     </row>
     <row r="19">
@@ -695,16 +695,16 @@
         <v>40568</v>
       </c>
       <c r="B19" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.032760719625195</v>
+        <v>0.6281234600665546</v>
       </c>
     </row>
     <row r="20">
@@ -712,16 +712,16 @@
         <v>40569</v>
       </c>
       <c r="B20" t="n">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2.369891492091695</v>
+        <v>0.473964189309123</v>
       </c>
     </row>
     <row r="21">
@@ -729,7 +729,7 @@
         <v>40570</v>
       </c>
       <c r="B21" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7896460337221951</v>
+        <v>0.3198049185516915</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>40573</v>
       </c>
       <c r="B22" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C22" t="n">
         <v>6</v>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.763058168259305</v>
+        <v>-1.735652024880729</v>
       </c>
     </row>
     <row r="23">
@@ -763,7 +763,7 @@
         <v>40574</v>
       </c>
       <c r="B23" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8504247051979451</v>
+        <v>0.1656456477942599</v>
       </c>
     </row>
     <row r="24">
@@ -780,7 +780,7 @@
         <v>40575</v>
       </c>
       <c r="B24" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.4867060672685549</v>
+        <v>-0.2968321644780347</v>
       </c>
     </row>
     <row r="25">
@@ -797,7 +797,7 @@
         <v>40576</v>
       </c>
       <c r="B25" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.0612553669383049</v>
+        <v>0.2170320713800705</v>
       </c>
     </row>
     <row r="26">
@@ -814,16 +814,16 @@
         <v>40577</v>
       </c>
       <c r="B26" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C26" t="n">
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.154318062576695</v>
+        <v>0.371191342137502</v>
       </c>
     </row>
     <row r="27">
@@ -831,16 +831,16 @@
         <v>40580</v>
       </c>
       <c r="B27" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C27" t="n">
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.7905994246473049</v>
+        <v>-1.273174212608435</v>
       </c>
     </row>
     <row r="28">
@@ -848,7 +848,7 @@
         <v>40581</v>
       </c>
       <c r="B28" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8504247051979451</v>
+        <v>0.1656456477942599</v>
       </c>
     </row>
     <row r="29">
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>2.977678206849195</v>
+        <v>2.426648285569923</v>
       </c>
     </row>
     <row r="30">
@@ -882,16 +882,16 @@
         <v>40583</v>
       </c>
       <c r="B30" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1.032760719625195</v>
+        <v>0.473964189309123</v>
       </c>
     </row>
     <row r="31">
@@ -899,7 +899,7 @@
         <v>40584</v>
       </c>
       <c r="B31" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C31" t="n">
         <v>3</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0004766954625549003</v>
+        <v>0.1656456477942599</v>
       </c>
     </row>
     <row r="32">
@@ -916,7 +916,7 @@
         <v>40587</v>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" t="n">
         <v>6</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.276828796453305</v>
+        <v>-1.221787789022624</v>
       </c>
     </row>
     <row r="33">
@@ -933,16 +933,16 @@
         <v>40588</v>
       </c>
       <c r="B33" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1.032760719625195</v>
+        <v>-0.2454457408922242</v>
       </c>
     </row>
     <row r="34">
@@ -950,7 +950,7 @@
         <v>40589</v>
       </c>
       <c r="B34" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3641953333919451</v>
+        <v>-0.2454457408922242</v>
       </c>
     </row>
     <row r="35">
@@ -967,7 +967,7 @@
         <v>40590</v>
       </c>
       <c r="B35" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1220340384140549</v>
+        <v>-0.5537642824070873</v>
       </c>
     </row>
     <row r="36">
@@ -984,7 +984,7 @@
         <v>40591</v>
       </c>
       <c r="B36" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C36" t="n">
         <v>3</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.1220340384140549</v>
+        <v>-0.5023778588212768</v>
       </c>
     </row>
     <row r="37">
@@ -1001,7 +1001,7 @@
         <v>40594</v>
       </c>
       <c r="B37" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C37" t="n">
         <v>6</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.337607467929055</v>
+        <v>-1.889811295638161</v>
       </c>
     </row>
     <row r="38">
@@ -1018,7 +1018,7 @@
         <v>40595</v>
       </c>
       <c r="B38" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.3043700528413049</v>
+        <v>-0.2968321644780347</v>
       </c>
     </row>
     <row r="39">
@@ -1035,7 +1035,7 @@
         <v>40596</v>
       </c>
       <c r="B39" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.0004766954625549003</v>
+        <v>0.06287280062263889</v>
       </c>
     </row>
     <row r="40">
@@ -1052,7 +1052,7 @@
         <v>40597</v>
       </c>
       <c r="B40" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.0004766954625549003</v>
+        <v>-0.2968321644780347</v>
       </c>
     </row>
     <row r="41">
@@ -1069,7 +1069,7 @@
         <v>40598</v>
       </c>
       <c r="B41" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C41" t="n">
         <v>3</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4857526763434451</v>
+        <v>-0.1426728937206032</v>
       </c>
     </row>
     <row r="42">
@@ -1086,7 +1086,7 @@
         <v>40601</v>
       </c>
       <c r="B42" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C42" t="n">
         <v>6</v>
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.398386139404805</v>
+        <v>-1.478719906951677</v>
       </c>
     </row>
     <row r="43">
@@ -1103,7 +1103,7 @@
         <v>40602</v>
       </c>
       <c r="B43" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.1828127098898049</v>
+        <v>0.1142592242084494</v>
       </c>
     </row>
     <row r="44">
@@ -1120,7 +1120,7 @@
         <v>40603</v>
       </c>
       <c r="B44" t="n">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7288673622464451</v>
+        <v>-0.09128647013479267</v>
       </c>
     </row>
     <row r="45">
@@ -1137,7 +1137,7 @@
         <v>40604</v>
       </c>
       <c r="B45" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6073100192949451</v>
+        <v>-0.3996050116496558</v>
       </c>
     </row>
     <row r="46">
@@ -1154,7 +1154,7 @@
         <v>40605</v>
       </c>
       <c r="B46" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C46" t="n">
         <v>3</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4857526763434451</v>
+        <v>-0.913469247507761</v>
       </c>
     </row>
     <row r="47">
@@ -1171,7 +1171,7 @@
         <v>40608</v>
       </c>
       <c r="B47" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C47" t="n">
         <v>6</v>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.006172854162305</v>
+        <v>-1.478719906951677</v>
       </c>
     </row>
     <row r="48">
@@ -1188,7 +1188,7 @@
         <v>40609</v>
       </c>
       <c r="B48" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3034166619161951</v>
+        <v>-0.03990004654898215</v>
       </c>
     </row>
     <row r="49">
@@ -1205,7 +1205,7 @@
         <v>40610</v>
       </c>
       <c r="B49" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.2435913813655549</v>
+        <v>-0.5537642824070873</v>
       </c>
     </row>
     <row r="50">
@@ -1222,7 +1222,7 @@
         <v>40611</v>
       </c>
       <c r="B50" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8504247051979451</v>
+        <v>-0.09128647013479267</v>
       </c>
     </row>
     <row r="51">
@@ -1239,7 +1239,7 @@
         <v>40612</v>
       </c>
       <c r="B51" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C51" t="n">
         <v>3</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1818593189646951</v>
+        <v>-0.1426728937206032</v>
       </c>
     </row>
     <row r="52">
@@ -1256,7 +1256,7 @@
         <v>40615</v>
       </c>
       <c r="B52" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C52" t="n">
         <v>6</v>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.580722153832055</v>
+        <v>-1.78703844846654</v>
       </c>
     </row>
     <row r="53">
@@ -1273,7 +1273,7 @@
         <v>40616</v>
       </c>
       <c r="B53" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6073100192949451</v>
+        <v>-0.03990004654898215</v>
       </c>
     </row>
     <row r="54">
@@ -1290,7 +1290,7 @@
         <v>40617</v>
       </c>
       <c r="B54" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2426379904404451</v>
+        <v>-0.2968321644780347</v>
       </c>
     </row>
     <row r="55">
@@ -1307,7 +1307,7 @@
         <v>40618</v>
       </c>
       <c r="B55" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5465313478191951</v>
+        <v>-0.2454457408922242</v>
       </c>
     </row>
     <row r="56">
@@ -1324,16 +1324,16 @@
         <v>40619</v>
       </c>
       <c r="B56" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C56" t="n">
         <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1.215096734052445</v>
+        <v>0.3198049185516915</v>
       </c>
     </row>
     <row r="57">
@@ -1341,16 +1341,16 @@
         <v>40622</v>
       </c>
       <c r="B57" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C57" t="n">
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.9729354390745549</v>
+        <v>-1.632879177709108</v>
       </c>
     </row>
     <row r="58">
@@ -1358,7 +1358,7 @@
         <v>40623</v>
       </c>
       <c r="B58" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8504247051979451</v>
+        <v>0.06287280062263889</v>
       </c>
     </row>
     <row r="59">
@@ -1375,7 +1375,7 @@
         <v>40624</v>
       </c>
       <c r="B59" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2426379904404451</v>
+        <v>0.5253506128949336</v>
       </c>
     </row>
     <row r="60">
@@ -1392,7 +1392,7 @@
         <v>40625</v>
       </c>
       <c r="B60" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5465313478191951</v>
+        <v>-0.2454457408922242</v>
       </c>
     </row>
     <row r="61">
@@ -1409,7 +1409,7 @@
         <v>40626</v>
       </c>
       <c r="B61" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C61" t="n">
         <v>3</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5474847387443049</v>
+        <v>-0.2968321644780347</v>
       </c>
     </row>
     <row r="62">
@@ -1426,7 +1426,7 @@
         <v>40629</v>
       </c>
       <c r="B62" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C62" t="n">
         <v>6</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.276828796453305</v>
+        <v>-2.043970566395592</v>
       </c>
     </row>
     <row r="63">
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.3043700528413049</v>
+        <v>-0.3482185880638453</v>
       </c>
     </row>
     <row r="64">
@@ -1460,7 +1460,7 @@
         <v>40631</v>
       </c>
       <c r="B64" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3641953333919451</v>
+        <v>0.4225777657233126</v>
       </c>
     </row>
     <row r="65">
@@ -1477,7 +1477,7 @@
         <v>40632</v>
       </c>
       <c r="B65" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6680886907706951</v>
+        <v>0.01148637703682838</v>
       </c>
     </row>
     <row r="66">
@@ -1494,7 +1494,7 @@
         <v>40633</v>
       </c>
       <c r="B66" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C66" t="n">
         <v>3</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.0004766954625549003</v>
+        <v>0.06287280062263889</v>
       </c>
     </row>
     <row r="67">
@@ -1511,7 +1511,7 @@
         <v>40636</v>
       </c>
       <c r="B67" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C67" t="n">
         <v>6</v>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.519943482356305</v>
+        <v>-1.478719906951677</v>
       </c>
     </row>
     <row r="68">
@@ -1528,16 +1528,16 @@
         <v>40637</v>
       </c>
       <c r="B68" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1.032760719625195</v>
+        <v>-0.1940593173064137</v>
       </c>
     </row>
     <row r="69">
@@ -1545,7 +1545,7 @@
         <v>40638</v>
       </c>
       <c r="B69" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1210806474889451</v>
+        <v>-0.1940593173064137</v>
       </c>
     </row>
     <row r="70">
@@ -1562,16 +1562,16 @@
         <v>40639</v>
       </c>
       <c r="B70" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C70" t="n">
         <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2426379904404451</v>
+        <v>-1.170401365436814</v>
       </c>
     </row>
     <row r="71">
@@ -1579,7 +1579,7 @@
         <v>40640</v>
       </c>
       <c r="B71" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C71" t="n">
         <v>3</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3641953333919451</v>
+        <v>0.5253506128949336</v>
       </c>
     </row>
     <row r="72">
@@ -1596,7 +1596,7 @@
         <v>40643</v>
       </c>
       <c r="B72" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C72" t="n">
         <v>6</v>
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.006172854162305</v>
+        <v>-1.632879177709108</v>
       </c>
     </row>
     <row r="73">
@@ -1613,7 +1613,7 @@
         <v>40644</v>
       </c>
       <c r="B73" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.7288673622464451</v>
+        <v>-0.4509914352354663</v>
       </c>
     </row>
     <row r="74">
@@ -1630,7 +1630,7 @@
         <v>40645</v>
       </c>
       <c r="B74" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6073100192949451</v>
+        <v>-0.1940593173064137</v>
       </c>
     </row>
     <row r="75">
@@ -1647,7 +1647,7 @@
         <v>40646</v>
       </c>
       <c r="B75" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C75" t="n">
         <v>2</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6680886907706951</v>
+        <v>-0.2968321644780347</v>
       </c>
     </row>
     <row r="76">
@@ -1664,7 +1664,7 @@
         <v>40647</v>
       </c>
       <c r="B76" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C76" t="n">
         <v>3</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2426379904404451</v>
+        <v>-0.4509914352354663</v>
       </c>
     </row>
     <row r="77">
@@ -1681,7 +1681,7 @@
         <v>40650</v>
       </c>
       <c r="B77" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C77" t="n">
         <v>6</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.033714110550305</v>
+        <v>-1.581492754123298</v>
       </c>
     </row>
     <row r="78">
@@ -1698,16 +1698,16 @@
         <v>40651</v>
       </c>
       <c r="B78" t="n">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>1.518990091431195</v>
+        <v>-0.5023778588212768</v>
       </c>
     </row>
     <row r="79">
@@ -1715,7 +1715,7 @@
         <v>40652</v>
       </c>
       <c r="B79" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4249740048676951</v>
+        <v>0.4225777657233126</v>
       </c>
     </row>
     <row r="80">
@@ -1732,7 +1732,7 @@
         <v>40653</v>
       </c>
       <c r="B80" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6690420816958049</v>
+        <v>-0.5023778588212768</v>
       </c>
     </row>
     <row r="81">
@@ -1749,7 +1749,7 @@
         <v>40658</v>
       </c>
       <c r="B81" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.033714110550305</v>
+        <v>-1.427333483365866</v>
       </c>
     </row>
     <row r="82">
@@ -1766,7 +1766,7 @@
         <v>40659</v>
       </c>
       <c r="B82" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.7298207531715549</v>
+        <v>-0.4509914352354663</v>
       </c>
     </row>
     <row r="83">
@@ -1783,7 +1783,7 @@
         <v>40660</v>
       </c>
       <c r="B83" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C83" t="n">
         <v>2</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.1220340384140549</v>
+        <v>-0.5023778588212768</v>
       </c>
     </row>
     <row r="84">
@@ -1800,7 +1800,7 @@
         <v>40661</v>
       </c>
       <c r="B84" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C84" t="n">
         <v>3</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.6082634102200549</v>
+        <v>-0.7079235531645189</v>
       </c>
     </row>
     <row r="85">
@@ -1817,7 +1817,7 @@
         <v>40664</v>
       </c>
       <c r="B85" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C85" t="n">
         <v>6</v>
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.702279496783555</v>
+        <v>-1.992584142809782</v>
       </c>
     </row>
     <row r="86">
@@ -1834,7 +1834,7 @@
         <v>40665</v>
       </c>
       <c r="B86" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1818593189646951</v>
+        <v>-0.6051507059928979</v>
       </c>
     </row>
     <row r="87">
@@ -1851,7 +1851,7 @@
         <v>40666</v>
       </c>
       <c r="B87" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5465313478191951</v>
+        <v>-0.3996050116496558</v>
       </c>
     </row>
     <row r="88">
@@ -1868,7 +1868,7 @@
         <v>40667</v>
       </c>
       <c r="B88" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C88" t="n">
         <v>2</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.0004766954625549003</v>
+        <v>-0.5023778588212768</v>
       </c>
     </row>
     <row r="89">
@@ -1885,7 +1885,7 @@
         <v>40668</v>
       </c>
       <c r="B89" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C89" t="n">
         <v>3</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.7298207531715549</v>
+        <v>-0.8620828239219505</v>
       </c>
     </row>
     <row r="90">
@@ -1902,7 +1902,7 @@
         <v>40671</v>
       </c>
       <c r="B90" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C90" t="n">
         <v>6</v>
@@ -1911,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.580722153832055</v>
+        <v>-1.530106330537487</v>
       </c>
     </row>
     <row r="91">
@@ -1919,7 +1919,7 @@
         <v>40672</v>
       </c>
       <c r="B91" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.1220340384140549</v>
+        <v>0.5767370364807441</v>
       </c>
     </row>
     <row r="92">
@@ -1936,16 +1936,16 @@
         <v>40673</v>
       </c>
       <c r="B92" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>1.518990091431195</v>
+        <v>0.2170320713800705</v>
       </c>
     </row>
     <row r="93">
@@ -1953,16 +1953,16 @@
         <v>40674</v>
       </c>
       <c r="B93" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C93" t="n">
         <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>1.822883448809945</v>
+        <v>0.371191342137502</v>
       </c>
     </row>
     <row r="94">
@@ -1970,7 +1970,7 @@
         <v>40675</v>
       </c>
       <c r="B94" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C94" t="n">
         <v>3</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.6680886907706951</v>
+        <v>-0.03990004654898215</v>
       </c>
     </row>
     <row r="95">
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.337607467929055</v>
+        <v>-1.221787789022624</v>
       </c>
     </row>
     <row r="96">
@@ -2004,7 +2004,7 @@
         <v>40679</v>
       </c>
       <c r="B96" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3641953333919451</v>
+        <v>0.5253506128949336</v>
       </c>
     </row>
     <row r="97">
@@ -2021,7 +2021,7 @@
         <v>40680</v>
       </c>
       <c r="B97" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8504247051979451</v>
+        <v>-0.6565371295787084</v>
       </c>
     </row>
     <row r="98">
@@ -2038,7 +2038,7 @@
         <v>40681</v>
       </c>
       <c r="B98" t="n">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C98" t="n">
         <v>2</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9719820481494451</v>
+        <v>-0.1940593173064137</v>
       </c>
     </row>
     <row r="99">
@@ -2055,7 +2055,7 @@
         <v>40682</v>
       </c>
       <c r="B99" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C99" t="n">
         <v>3</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3641953333919451</v>
+        <v>0.1142592242084494</v>
       </c>
     </row>
     <row r="100">
@@ -2072,16 +2072,16 @@
         <v>40685</v>
       </c>
       <c r="B100" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C100" t="n">
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-1.823836839735055</v>
+        <v>-0.7079235531645189</v>
       </c>
     </row>
     <row r="101">
@@ -2089,16 +2089,16 @@
         <v>40686</v>
       </c>
       <c r="B101" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>1.397432748479695</v>
+        <v>0.473964189309123</v>
       </c>
     </row>
     <row r="102">
@@ -2106,16 +2106,16 @@
         <v>40687</v>
       </c>
       <c r="B102" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4249740048676951</v>
+        <v>1.398919813853712</v>
       </c>
     </row>
     <row r="103">
@@ -2123,7 +2123,7 @@
         <v>40688</v>
       </c>
       <c r="B103" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C103" t="n">
         <v>2</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.2426379904404451</v>
+        <v>0.371191342137502</v>
       </c>
     </row>
     <row r="104">
@@ -2140,7 +2140,7 @@
         <v>40689</v>
       </c>
       <c r="B104" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C104" t="n">
         <v>3</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.7288673622464451</v>
+        <v>-0.1426728937206032</v>
       </c>
     </row>
     <row r="105">
@@ -2157,16 +2157,16 @@
         <v>40692</v>
       </c>
       <c r="B105" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C105" t="n">
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.3651487243170549</v>
+        <v>-1.427333483365866</v>
       </c>
     </row>
     <row r="106">
@@ -2174,7 +2174,7 @@
         <v>40693</v>
       </c>
       <c r="B106" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3034166619161951</v>
+        <v>-0.6051507059928979</v>
       </c>
     </row>
     <row r="107">
@@ -2191,7 +2191,7 @@
         <v>40694</v>
       </c>
       <c r="B107" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.8504247051979451</v>
+        <v>0.01148637703682838</v>
       </c>
     </row>
     <row r="108">
@@ -2208,16 +2208,16 @@
         <v>40695</v>
       </c>
       <c r="B108" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C108" t="n">
         <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>1.518990091431195</v>
+        <v>0.7822827308239861</v>
       </c>
     </row>
     <row r="109">
@@ -2225,7 +2225,7 @@
         <v>40696</v>
       </c>
       <c r="B109" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C109" t="n">
         <v>3</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.6082634102200549</v>
+        <v>-0.3482185880638453</v>
       </c>
     </row>
     <row r="110">
@@ -2242,7 +2242,7 @@
         <v>40699</v>
       </c>
       <c r="B110" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C110" t="n">
         <v>6</v>
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>-1.155271453501805</v>
+        <v>-1.83842487205235</v>
       </c>
     </row>
     <row r="111">
@@ -2259,7 +2259,7 @@
         <v>40700</v>
       </c>
       <c r="B111" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1818593189646951</v>
+        <v>-0.03990004654898215</v>
       </c>
     </row>
     <row r="112">
@@ -2285,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>1.458211419955445</v>
+        <v>1.14198769592466</v>
       </c>
     </row>
     <row r="113">
@@ -2293,7 +2293,7 @@
         <v>40702</v>
       </c>
       <c r="B113" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C113" t="n">
         <v>2</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3034166619161951</v>
+        <v>-0.5023778588212768</v>
       </c>
     </row>
     <row r="114">
@@ -2310,7 +2310,7 @@
         <v>40703</v>
       </c>
       <c r="B114" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C114" t="n">
         <v>3</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2426379904404451</v>
+        <v>0.7308963072381757</v>
       </c>
     </row>
     <row r="115">
@@ -2327,16 +2327,16 @@
         <v>40706</v>
       </c>
       <c r="B115" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C115" t="n">
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.7298207531715549</v>
+        <v>-1.83842487205235</v>
       </c>
     </row>
     <row r="116">
@@ -2344,16 +2344,16 @@
         <v>40707</v>
       </c>
       <c r="B116" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>1.093539391100945</v>
+        <v>0.1142592242084494</v>
       </c>
     </row>
     <row r="117">
@@ -2361,16 +2361,16 @@
         <v>40708</v>
       </c>
       <c r="B117" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>1.154318062576695</v>
+        <v>0.01148637703682838</v>
       </c>
     </row>
     <row r="118">
@@ -2378,7 +2378,7 @@
         <v>40709</v>
       </c>
       <c r="B118" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C118" t="n">
         <v>2</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4249740048676951</v>
+        <v>-0.2968321644780347</v>
       </c>
     </row>
     <row r="119">
@@ -2395,7 +2395,7 @@
         <v>40710</v>
       </c>
       <c r="B119" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C119" t="n">
         <v>3</v>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0603019760131951</v>
+        <v>-0.8620828239219505</v>
       </c>
     </row>
     <row r="120">
@@ -2412,7 +2412,7 @@
         <v>40713</v>
       </c>
       <c r="B120" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C120" t="n">
         <v>6</v>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>-1.155271453501805</v>
+        <v>-1.530106330537487</v>
       </c>
     </row>
     <row r="121">
@@ -2429,7 +2429,7 @@
         <v>40714</v>
       </c>
       <c r="B121" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3034166619161951</v>
+        <v>-0.03990004654898215</v>
       </c>
     </row>
     <row r="122">
@@ -2446,7 +2446,7 @@
         <v>40715</v>
       </c>
       <c r="B122" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.6073100192949451</v>
+        <v>-0.1426728937206032</v>
       </c>
     </row>
     <row r="123">
@@ -2463,7 +2463,7 @@
         <v>40716</v>
       </c>
       <c r="B123" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C123" t="n">
         <v>2</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3641953333919451</v>
+        <v>-0.1426728937206032</v>
       </c>
     </row>
     <row r="124">
@@ -2480,7 +2480,7 @@
         <v>40717</v>
       </c>
       <c r="B124" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C124" t="n">
         <v>3</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5465313478191951</v>
+        <v>-0.09128647013479267</v>
       </c>
     </row>
     <row r="125">
@@ -2497,16 +2497,16 @@
         <v>40720</v>
       </c>
       <c r="B125" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C125" t="n">
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.7905994246473049</v>
+        <v>-1.427333483365866</v>
       </c>
     </row>
     <row r="126">
@@ -2514,7 +2514,7 @@
         <v>40721</v>
       </c>
       <c r="B126" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0603019760131951</v>
+        <v>-0.3482185880638453</v>
       </c>
     </row>
     <row r="127">
@@ -2531,7 +2531,7 @@
         <v>40722</v>
       </c>
       <c r="B127" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.0612553669383049</v>
+        <v>-0.2454457408922242</v>
       </c>
     </row>
     <row r="128">
@@ -2548,7 +2548,7 @@
         <v>40724</v>
       </c>
       <c r="B128" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C128" t="n">
         <v>3</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.6690420816958049</v>
+        <v>-0.3996050116496558</v>
       </c>
     </row>
     <row r="129">
@@ -2565,7 +2565,7 @@
         <v>40727</v>
       </c>
       <c r="B129" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C129" t="n">
         <v>6</v>
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>-2.006172854162305</v>
+        <v>-1.941197719223971</v>
       </c>
     </row>
     <row r="130">
@@ -2582,7 +2582,7 @@
         <v>40728</v>
       </c>
       <c r="B130" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0603019760131951</v>
+        <v>-0.3482185880638453</v>
       </c>
     </row>
     <row r="131">
@@ -2599,7 +2599,7 @@
         <v>40729</v>
       </c>
       <c r="B131" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.3043700528413049</v>
+        <v>0.6795098836523652</v>
       </c>
     </row>
     <row r="132">
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1210806474889451</v>
+        <v>0.01148637703682838</v>
       </c>
     </row>
     <row r="133">
@@ -2633,7 +2633,7 @@
         <v>40731</v>
       </c>
       <c r="B133" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C133" t="n">
         <v>3</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.6680886907706951</v>
+        <v>0.371191342137502</v>
       </c>
     </row>
     <row r="134">
@@ -2650,7 +2650,7 @@
         <v>40734</v>
       </c>
       <c r="B134" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C134" t="n">
         <v>6</v>
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>-1.459164810880555</v>
+        <v>-1.735652024880729</v>
       </c>
     </row>
     <row r="135">
@@ -2667,7 +2667,7 @@
         <v>40735</v>
       </c>
       <c r="B135" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>0.1210806474889451</v>
+        <v>0.473964189309123</v>
       </c>
     </row>
     <row r="136">
@@ -2684,7 +2684,7 @@
         <v>40736</v>
       </c>
       <c r="B136" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.3043700528413049</v>
+        <v>0.6795098836523652</v>
       </c>
     </row>
     <row r="137">
@@ -2701,16 +2701,16 @@
         <v>40737</v>
       </c>
       <c r="B137" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C137" t="n">
         <v>2</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>-1.216050124977555</v>
+        <v>0.1142592242084494</v>
       </c>
     </row>
     <row r="138">
@@ -2718,7 +2718,7 @@
         <v>40738</v>
       </c>
       <c r="B138" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C138" t="n">
         <v>3</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0.1818593189646951</v>
+        <v>0.1656456477942599</v>
       </c>
     </row>
     <row r="139">
@@ -2735,7 +2735,7 @@
         <v>40741</v>
       </c>
       <c r="B139" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C139" t="n">
         <v>6</v>
@@ -2744,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>-1.398386139404805</v>
+        <v>-1.375947059780056</v>
       </c>
     </row>
     <row r="140">
@@ -2752,7 +2752,7 @@
         <v>40742</v>
       </c>
       <c r="B140" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0.2426379904404451</v>
+        <v>0.5767370364807441</v>
       </c>
     </row>
     <row r="141">
@@ -2769,7 +2769,7 @@
         <v>40743</v>
       </c>
       <c r="B141" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.5465313478191951</v>
+        <v>0.7822827308239861</v>
       </c>
     </row>
     <row r="142">
@@ -2786,7 +2786,7 @@
         <v>40744</v>
       </c>
       <c r="B142" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C142" t="n">
         <v>2</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.7905994246473049</v>
+        <v>0.1656456477942599</v>
       </c>
     </row>
     <row r="143">
@@ -2803,7 +2803,7 @@
         <v>40745</v>
       </c>
       <c r="B143" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C143" t="n">
         <v>3</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0603019760131951</v>
+        <v>0.268418494965881</v>
       </c>
     </row>
     <row r="144">
@@ -2820,7 +2820,7 @@
         <v>40748</v>
       </c>
       <c r="B144" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C144" t="n">
         <v>6</v>
@@ -2829,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>-2.006172854162305</v>
+        <v>-2.249516260738834</v>
       </c>
     </row>
     <row r="145">
@@ -2837,7 +2837,7 @@
         <v>40749</v>
       </c>
       <c r="B145" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.6082634102200549</v>
+        <v>0.9364420015814178</v>
       </c>
     </row>
     <row r="146">
@@ -2854,7 +2854,7 @@
         <v>40750</v>
       </c>
       <c r="B146" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.1210806474889451</v>
+        <v>0.371191342137502</v>
       </c>
     </row>
     <row r="147">
@@ -2871,16 +2871,16 @@
         <v>40751</v>
       </c>
       <c r="B147" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C147" t="n">
         <v>2</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.2435913813655549</v>
+        <v>1.244760543096281</v>
       </c>
     </row>
     <row r="148">
@@ -2888,16 +2888,16 @@
         <v>40752</v>
       </c>
       <c r="B148" t="n">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C148" t="n">
         <v>3</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.6082634102200549</v>
+        <v>1.090601272338849</v>
       </c>
     </row>
     <row r="149">
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>-1.641500825307805</v>
+        <v>-1.478719906951677</v>
       </c>
     </row>
     <row r="150">
@@ -2922,7 +2922,7 @@
         <v>40756</v>
       </c>
       <c r="B150" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.5474847387443049</v>
+        <v>0.268418494965881</v>
       </c>
     </row>
     <row r="151">
@@ -2939,7 +2939,7 @@
         <v>40757</v>
       </c>
       <c r="B151" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.1818593189646951</v>
+        <v>-0.1940593173064137</v>
       </c>
     </row>
     <row r="152">
@@ -2956,7 +2956,7 @@
         <v>40758</v>
       </c>
       <c r="B152" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C152" t="n">
         <v>2</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.4867060672685549</v>
+        <v>0.473964189309123</v>
       </c>
     </row>
     <row r="153">
@@ -2973,16 +2973,16 @@
         <v>40759</v>
       </c>
       <c r="B153" t="n">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C153" t="n">
         <v>3</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>1.275875405528195</v>
+        <v>0.1142592242084494</v>
       </c>
     </row>
     <row r="154">
@@ -2990,7 +2990,7 @@
         <v>40762</v>
       </c>
       <c r="B154" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C154" t="n">
         <v>6</v>
@@ -2999,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>-1.702279496783555</v>
+        <v>-1.427333483365866</v>
       </c>
     </row>
     <row r="155">
@@ -3007,16 +3007,16 @@
         <v>40763</v>
       </c>
       <c r="B155" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>0.6680886907706951</v>
+        <v>1.296146966682092</v>
       </c>
     </row>
     <row r="156">
@@ -3024,7 +3024,7 @@
         <v>40764</v>
       </c>
       <c r="B156" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>-0.3043700528413049</v>
+        <v>0.01148637703682838</v>
       </c>
     </row>
     <row r="157">
@@ -3041,16 +3041,16 @@
         <v>40765</v>
       </c>
       <c r="B157" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C157" t="n">
         <v>2</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9112033766736951</v>
+        <v>1.296146966682092</v>
       </c>
     </row>
     <row r="158">
@@ -3058,16 +3058,16 @@
         <v>40766</v>
       </c>
       <c r="B158" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C158" t="n">
         <v>3</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0.1210806474889451</v>
+        <v>1.039214848753039</v>
       </c>
     </row>
     <row r="159">
@@ -3075,7 +3075,7 @@
         <v>40769</v>
       </c>
       <c r="B159" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C159" t="n">
         <v>6</v>
@@ -3084,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>-1.337607467929055</v>
+        <v>-1.83842487205235</v>
       </c>
     </row>
     <row r="160">
@@ -3092,7 +3092,7 @@
         <v>40770</v>
       </c>
       <c r="B160" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.7298207531715549</v>
+        <v>0.3198049185516915</v>
       </c>
     </row>
     <row r="161">
@@ -3109,7 +3109,7 @@
         <v>40771</v>
       </c>
       <c r="B161" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0.0603019760131951</v>
+        <v>0.5253506128949336</v>
       </c>
     </row>
     <row r="162">
@@ -3126,7 +3126,7 @@
         <v>40772</v>
       </c>
       <c r="B162" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C162" t="n">
         <v>2</v>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.4259273957928049</v>
+        <v>0.6281234600665546</v>
       </c>
     </row>
     <row r="163">
@@ -3143,16 +3143,16 @@
         <v>40773</v>
       </c>
       <c r="B163" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C163" t="n">
         <v>3</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.3651487243170549</v>
+        <v>1.296146966682092</v>
       </c>
     </row>
     <row r="164">
@@ -3160,16 +3160,16 @@
         <v>40776</v>
       </c>
       <c r="B164" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C164" t="n">
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>-1.519943482356305</v>
+        <v>-0.7593099767503294</v>
       </c>
     </row>
     <row r="165">
@@ -3177,7 +3177,7 @@
         <v>40777</v>
       </c>
       <c r="B165" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0.4857526763434451</v>
+        <v>0.9364420015814178</v>
       </c>
     </row>
     <row r="166">
@@ -3194,7 +3194,7 @@
         <v>40778</v>
       </c>
       <c r="B166" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0.9112033766736951</v>
+        <v>0.06287280062263889</v>
       </c>
     </row>
     <row r="167">
@@ -3211,7 +3211,7 @@
         <v>40779</v>
       </c>
       <c r="B167" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C167" t="n">
         <v>2</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>0.9112033766736951</v>
+        <v>0.9878284251672282</v>
       </c>
     </row>
     <row r="168">
@@ -3228,7 +3228,7 @@
         <v>40780</v>
       </c>
       <c r="B168" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C168" t="n">
         <v>3</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.2435913813655549</v>
+        <v>0.06287280062263889</v>
       </c>
     </row>
     <row r="169">
@@ -3245,7 +3245,7 @@
         <v>40783</v>
       </c>
       <c r="B169" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C169" t="n">
         <v>6</v>
@@ -3254,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>-2.188508868589555</v>
+        <v>-1.119014941851003</v>
       </c>
     </row>
     <row r="170">
@@ -3262,16 +3262,16 @@
         <v>40784</v>
       </c>
       <c r="B170" t="n">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.2435913813655549</v>
+        <v>1.090601272338849</v>
       </c>
     </row>
     <row r="171">
@@ -3279,7 +3279,7 @@
         <v>40785</v>
       </c>
       <c r="B171" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>-0.1220340384140549</v>
+        <v>-0.1426728937206032</v>
       </c>
     </row>
     <row r="172">
@@ -3296,7 +3296,7 @@
         <v>40786</v>
       </c>
       <c r="B172" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C172" t="n">
         <v>2</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>-0.0004766954625549003</v>
+        <v>0.8336691544097967</v>
       </c>
     </row>
     <row r="173">
@@ -3313,7 +3313,7 @@
         <v>40787</v>
       </c>
       <c r="B173" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C173" t="n">
         <v>3</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.0612553669383049</v>
+        <v>0.9364420015814178</v>
       </c>
     </row>
     <row r="174">
@@ -3330,7 +3330,7 @@
         <v>40790</v>
       </c>
       <c r="B174" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C174" t="n">
         <v>6</v>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>-1.945394182686555</v>
+        <v>-1.221787789022624</v>
       </c>
     </row>
     <row r="175">
@@ -3347,7 +3347,7 @@
         <v>40791</v>
       </c>
       <c r="B175" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>-0.4867060672685549</v>
+        <v>-0.1940593173064137</v>
       </c>
     </row>
     <row r="176">
@@ -3364,16 +3364,16 @@
         <v>40792</v>
       </c>
       <c r="B176" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>0.7896460337221951</v>
+        <v>1.604465508196955</v>
       </c>
     </row>
     <row r="177">
@@ -3381,7 +3381,7 @@
         <v>40793</v>
       </c>
       <c r="B177" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C177" t="n">
         <v>2</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>0.2426379904404451</v>
+        <v>-0.1940593173064137</v>
       </c>
     </row>
     <row r="178">
@@ -3398,7 +3398,7 @@
         <v>40794</v>
       </c>
       <c r="B178" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C178" t="n">
         <v>3</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0.5465313478191951</v>
+        <v>0.5253506128949336</v>
       </c>
     </row>
     <row r="179">
@@ -3424,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-1.459164810880555</v>
+        <v>-1.324560636194245</v>
       </c>
     </row>
     <row r="180">
@@ -3432,7 +3432,7 @@
         <v>40798</v>
       </c>
       <c r="B180" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0.7896460337221951</v>
+        <v>0.06287280062263889</v>
       </c>
     </row>
     <row r="181">
@@ -3449,7 +3449,7 @@
         <v>40799</v>
       </c>
       <c r="B181" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>0.6073100192949451</v>
+        <v>0.8336691544097967</v>
       </c>
     </row>
     <row r="182">
@@ -3466,7 +3466,7 @@
         <v>40800</v>
       </c>
       <c r="B182" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C182" t="n">
         <v>2</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>0.5465313478191951</v>
+        <v>0.5767370364807441</v>
       </c>
     </row>
     <row r="183">
@@ -3483,7 +3483,7 @@
         <v>40801</v>
       </c>
       <c r="B183" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C183" t="n">
         <v>3</v>
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>1.275875405528195</v>
+        <v>1.244760543096281</v>
       </c>
     </row>
     <row r="184">
@@ -3500,7 +3500,7 @@
         <v>40804</v>
       </c>
       <c r="B184" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C184" t="n">
         <v>6</v>
@@ -3509,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>-2.006172854162305</v>
+        <v>-1.016242094679382</v>
       </c>
     </row>
     <row r="185">
@@ -3517,7 +3517,7 @@
         <v>40805</v>
       </c>
       <c r="B185" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>0.5465313478191951</v>
+        <v>0.7822827308239861</v>
       </c>
     </row>
     <row r="186">
@@ -3534,7 +3534,7 @@
         <v>40806</v>
       </c>
       <c r="B186" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0.3034166619161951</v>
+        <v>0.9878284251672282</v>
       </c>
     </row>
     <row r="187">
@@ -3551,16 +3551,16 @@
         <v>40807</v>
       </c>
       <c r="B187" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C187" t="n">
         <v>2</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0.7288673622464451</v>
+        <v>1.090601272338849</v>
       </c>
     </row>
     <row r="188">
@@ -3568,7 +3568,7 @@
         <v>40808</v>
       </c>
       <c r="B188" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C188" t="n">
         <v>3</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>0.9112033766736951</v>
+        <v>0.268418494965881</v>
       </c>
     </row>
     <row r="189">
@@ -3585,16 +3585,16 @@
         <v>40811</v>
       </c>
       <c r="B189" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C189" t="n">
         <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>-1.702279496783555</v>
+        <v>-0.8620828239219505</v>
       </c>
     </row>
     <row r="190">
@@ -3602,7 +3602,7 @@
         <v>40812</v>
       </c>
       <c r="B190" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>1.154318062576695</v>
+        <v>1.707238355368575</v>
       </c>
     </row>
     <row r="191">
@@ -3619,7 +3619,7 @@
         <v>40813</v>
       </c>
       <c r="B191" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
@@ -3628,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>1.154318062576695</v>
+        <v>1.861397626126007</v>
       </c>
     </row>
     <row r="192">
@@ -3636,16 +3636,16 @@
         <v>40814</v>
       </c>
       <c r="B192" t="n">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C192" t="n">
         <v>2</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0.6680886907706951</v>
+        <v>1.810011202540197</v>
       </c>
     </row>
     <row r="193">
@@ -3653,7 +3653,7 @@
         <v>40815</v>
       </c>
       <c r="B193" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C193" t="n">
         <v>3</v>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>0.6680886907706951</v>
+        <v>0.7308963072381757</v>
       </c>
     </row>
     <row r="194">
@@ -3670,7 +3670,7 @@
         <v>40818</v>
       </c>
       <c r="B194" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C194" t="n">
         <v>6</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>-0.3043700528413049</v>
+        <v>-0.09128647013479267</v>
       </c>
     </row>
     <row r="195">
@@ -3687,7 +3687,7 @@
         <v>40819</v>
       </c>
       <c r="B195" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>1.762104777334195</v>
+        <v>1.501692661025333</v>
       </c>
     </row>
     <row r="196">
@@ -3704,7 +3704,7 @@
         <v>40820</v>
       </c>
       <c r="B196" t="n">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -3713,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>1.336654077003945</v>
+        <v>2.272489014812491</v>
       </c>
     </row>
     <row r="197">
@@ -3721,16 +3721,16 @@
         <v>40821</v>
       </c>
       <c r="B197" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C197" t="n">
         <v>2</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>0.7896460337221951</v>
+        <v>1.090601272338849</v>
       </c>
     </row>
     <row r="198">
@@ -3738,7 +3738,7 @@
         <v>40822</v>
       </c>
       <c r="B198" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C198" t="n">
         <v>3</v>
@@ -3747,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>1.215096734052445</v>
+        <v>2.426648285569923</v>
       </c>
     </row>
     <row r="199">
@@ -3755,7 +3755,7 @@
         <v>40825</v>
       </c>
       <c r="B199" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C199" t="n">
         <v>6</v>
@@ -3764,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>-2.006172854162305</v>
+        <v>-1.632879177709108</v>
       </c>
     </row>
     <row r="200">
@@ -3772,7 +3772,7 @@
         <v>40826</v>
       </c>
       <c r="B200" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>0.4857526763434451</v>
+        <v>0.473964189309123</v>
       </c>
     </row>
     <row r="201">
@@ -3789,16 +3789,16 @@
         <v>40827</v>
       </c>
       <c r="B201" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>0.4857526763434451</v>
+        <v>1.347533390267902</v>
       </c>
     </row>
     <row r="202">
@@ -3806,16 +3806,16 @@
         <v>40828</v>
       </c>
       <c r="B202" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C202" t="n">
         <v>2</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>0.7288673622464451</v>
+        <v>1.398919813853712</v>
       </c>
     </row>
     <row r="203">
@@ -3823,7 +3823,7 @@
         <v>40829</v>
       </c>
       <c r="B203" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C203" t="n">
         <v>3</v>
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>2.977678206849195</v>
+        <v>2.323875438398302</v>
       </c>
     </row>
     <row r="204">
@@ -3840,7 +3840,7 @@
         <v>40832</v>
       </c>
       <c r="B204" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C204" t="n">
         <v>6</v>
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>-1.033714110550305</v>
+        <v>-1.016242094679382</v>
       </c>
     </row>
     <row r="205">
@@ -3857,16 +3857,16 @@
         <v>40833</v>
       </c>
       <c r="B205" t="n">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>-0.1220340384140549</v>
+        <v>1.347533390267902</v>
       </c>
     </row>
     <row r="206">
@@ -3874,16 +3874,16 @@
         <v>40834</v>
       </c>
       <c r="B206" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>0.6073100192949451</v>
+        <v>1.912784049711818</v>
       </c>
     </row>
     <row r="207">
@@ -3891,16 +3891,16 @@
         <v>40835</v>
       </c>
       <c r="B207" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C207" t="n">
         <v>2</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>0.9112033766736951</v>
+        <v>1.810011202540197</v>
       </c>
     </row>
     <row r="208">
@@ -3908,16 +3908,16 @@
         <v>40836</v>
       </c>
       <c r="B208" t="n">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C208" t="n">
         <v>3</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>0.4249740048676951</v>
+        <v>2.066943320469249</v>
       </c>
     </row>
     <row r="209">
@@ -3925,16 +3925,16 @@
         <v>40839</v>
       </c>
       <c r="B209" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C209" t="n">
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209" t="n">
-        <v>-1.519943482356305</v>
+        <v>-0.7079235531645189</v>
       </c>
     </row>
     <row r="210">
@@ -3942,7 +3942,7 @@
         <v>40840</v>
       </c>
       <c r="B210" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>1.093539391100945</v>
+        <v>2.221102591226681</v>
       </c>
     </row>
     <row r="211">
@@ -3959,16 +3959,16 @@
         <v>40841</v>
       </c>
       <c r="B211" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>-0.0004766954625549003</v>
+        <v>1.347533390267902</v>
       </c>
     </row>
     <row r="212">
@@ -3976,16 +3976,16 @@
         <v>40842</v>
       </c>
       <c r="B212" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C212" t="n">
         <v>2</v>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>0.3641953333919451</v>
+        <v>1.347533390267902</v>
       </c>
     </row>
     <row r="213">
@@ -3993,16 +3993,16 @@
         <v>40843</v>
       </c>
       <c r="B213" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C213" t="n">
         <v>3</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>0.6073100192949451</v>
+        <v>1.553079084611144</v>
       </c>
     </row>
     <row r="214">
@@ -4010,16 +4010,16 @@
         <v>40846</v>
       </c>
       <c r="B214" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C214" t="n">
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>-1.459164810880555</v>
+        <v>-0.8620828239219505</v>
       </c>
     </row>
     <row r="215">
@@ -4027,7 +4027,7 @@
         <v>40847</v>
       </c>
       <c r="B215" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="E215" t="n">
-        <v>0.4857526763434451</v>
+        <v>0.5767370364807441</v>
       </c>
     </row>
     <row r="216">
@@ -4044,7 +4044,7 @@
         <v>40848</v>
       </c>
       <c r="B216" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>-0.7298207531715549</v>
+        <v>-0.5023778588212768</v>
       </c>
     </row>
     <row r="217">
@@ -4061,16 +4061,16 @@
         <v>40849</v>
       </c>
       <c r="B217" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C217" t="n">
         <v>2</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>0.3034166619161951</v>
+        <v>1.296146966682092</v>
       </c>
     </row>
     <row r="218">
@@ -4078,7 +4078,7 @@
         <v>40850</v>
       </c>
       <c r="B218" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C218" t="n">
         <v>3</v>
@@ -4087,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>1.701326105858445</v>
+        <v>2.066943320469249</v>
       </c>
     </row>
     <row r="219">
@@ -4095,16 +4095,16 @@
         <v>40853</v>
       </c>
       <c r="B219" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C219" t="n">
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>-1.702279496783555</v>
+        <v>-0.81069640033614</v>
       </c>
     </row>
     <row r="220">
@@ -4112,7 +4112,7 @@
         <v>40854</v>
       </c>
       <c r="B220" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>1.397432748479695</v>
+        <v>1.398919813853712</v>
       </c>
     </row>
     <row r="221">
@@ -4138,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>1.579768762906945</v>
+        <v>1.244760543096281</v>
       </c>
     </row>
     <row r="222">
@@ -4146,7 +4146,7 @@
         <v>40856</v>
       </c>
       <c r="B222" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C222" t="n">
         <v>2</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>0.0603019760131951</v>
+        <v>0.9878284251672282</v>
       </c>
     </row>
     <row r="223">
@@ -4163,7 +4163,7 @@
         <v>40857</v>
       </c>
       <c r="B223" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C223" t="n">
         <v>3</v>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>-0.1828127098898049</v>
+        <v>0.7308963072381757</v>
       </c>
     </row>
     <row r="224">
@@ -4180,7 +4180,7 @@
         <v>40860</v>
       </c>
       <c r="B224" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C224" t="n">
         <v>6</v>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="E224" t="n">
-        <v>-1.398386139404805</v>
+        <v>-1.427333483365866</v>
       </c>
     </row>
     <row r="225">
@@ -4197,7 +4197,7 @@
         <v>40861</v>
       </c>
       <c r="B225" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="E225" t="n">
-        <v>0.0603019760131951</v>
+        <v>0.1656456477942599</v>
       </c>
     </row>
     <row r="226">
@@ -4214,7 +4214,7 @@
         <v>40862</v>
       </c>
       <c r="B226" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>0.4249740048676951</v>
+        <v>0.6281234600665546</v>
       </c>
     </row>
     <row r="227">
@@ -4231,7 +4231,7 @@
         <v>40863</v>
       </c>
       <c r="B227" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C227" t="n">
         <v>2</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.6690420816958049</v>
+        <v>0.4225777657233126</v>
       </c>
     </row>
     <row r="228">
@@ -4248,7 +4248,7 @@
         <v>40864</v>
       </c>
       <c r="B228" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C228" t="n">
         <v>3</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>0.9112033766736951</v>
+        <v>0.8336691544097967</v>
       </c>
     </row>
     <row r="229">
@@ -4265,7 +4265,7 @@
         <v>40867</v>
       </c>
       <c r="B229" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C229" t="n">
         <v>6</v>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>-1.033714110550305</v>
+        <v>-1.067628518265193</v>
       </c>
     </row>
     <row r="230">
@@ -4282,7 +4282,7 @@
         <v>40868</v>
       </c>
       <c r="B230" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>0.5465313478191951</v>
+        <v>0.3198049185516915</v>
       </c>
     </row>
     <row r="231">
@@ -4299,16 +4299,16 @@
         <v>40869</v>
       </c>
       <c r="B231" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>0.7288673622464451</v>
+        <v>1.398919813853712</v>
       </c>
     </row>
     <row r="232">
@@ -4316,7 +4316,7 @@
         <v>40870</v>
       </c>
       <c r="B232" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C232" t="n">
         <v>2</v>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>-0.4259273957928049</v>
+        <v>0.1142592242084494</v>
       </c>
     </row>
     <row r="233">
@@ -4333,7 +4333,7 @@
         <v>40871</v>
       </c>
       <c r="B233" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C233" t="n">
         <v>3</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>-0.1220340384140549</v>
+        <v>0.5767370364807441</v>
       </c>
     </row>
     <row r="234">
@@ -4350,16 +4350,16 @@
         <v>40874</v>
       </c>
       <c r="B234" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C234" t="n">
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>-1.216050124977555</v>
+        <v>-0.7593099767503294</v>
       </c>
     </row>
     <row r="235">
@@ -4367,7 +4367,7 @@
         <v>40875</v>
       </c>
       <c r="B235" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.0612553669383049</v>
+        <v>0.371191342137502</v>
       </c>
     </row>
     <row r="236">
@@ -4384,7 +4384,7 @@
         <v>40876</v>
       </c>
       <c r="B236" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.3651487243170549</v>
+        <v>0.01148637703682838</v>
       </c>
     </row>
     <row r="237">
@@ -4401,7 +4401,7 @@
         <v>40877</v>
       </c>
       <c r="B237" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C237" t="n">
         <v>2</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>-0.3651487243170549</v>
+        <v>-0.2454457408922242</v>
       </c>
     </row>
     <row r="238">
@@ -4418,7 +4418,7 @@
         <v>40878</v>
       </c>
       <c r="B238" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C238" t="n">
         <v>3</v>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>-0.5474847387443049</v>
+        <v>-0.2454457408922242</v>
       </c>
     </row>
     <row r="239">
@@ -4435,7 +4435,7 @@
         <v>40881</v>
       </c>
       <c r="B239" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C239" t="n">
         <v>6</v>
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-1.519943482356305</v>
+        <v>-1.016242094679382</v>
       </c>
     </row>
     <row r="240">
@@ -4452,7 +4452,7 @@
         <v>40882</v>
       </c>
       <c r="B240" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>-0.0612553669383049</v>
+        <v>0.473964189309123</v>
       </c>
     </row>
     <row r="241">
@@ -4469,16 +4469,16 @@
         <v>40883</v>
       </c>
       <c r="B241" t="n">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>0.1818593189646951</v>
+        <v>1.296146966682092</v>
       </c>
     </row>
     <row r="242">
@@ -4486,16 +4486,16 @@
         <v>40884</v>
       </c>
       <c r="B242" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C242" t="n">
         <v>2</v>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>0.9719820481494451</v>
+        <v>1.758624778954386</v>
       </c>
     </row>
     <row r="243">
@@ -4503,16 +4503,16 @@
         <v>40885</v>
       </c>
       <c r="B243" t="n">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C243" t="n">
         <v>3</v>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>-0.2435913813655549</v>
+        <v>1.039214848753039</v>
       </c>
     </row>
     <row r="244">
@@ -4520,7 +4520,7 @@
         <v>40888</v>
       </c>
       <c r="B244" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C244" t="n">
         <v>6</v>
@@ -4529,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>-1.702279496783555</v>
+        <v>-1.78703844846654</v>
       </c>
     </row>
     <row r="245">
@@ -4537,7 +4537,7 @@
         <v>40889</v>
       </c>
       <c r="B245" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="E245" t="n">
-        <v>0.4249740048676951</v>
+        <v>0.371191342137502</v>
       </c>
     </row>
     <row r="246">
@@ -4554,7 +4554,7 @@
         <v>40890</v>
       </c>
       <c r="B246" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>-0.3651487243170549</v>
+        <v>0.4225777657233126</v>
       </c>
     </row>
     <row r="247">
@@ -4571,7 +4571,7 @@
         <v>40891</v>
       </c>
       <c r="B247" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C247" t="n">
         <v>2</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.3651487243170549</v>
+        <v>0.1142592242084494</v>
       </c>
     </row>
     <row r="248">
@@ -4588,16 +4588,16 @@
         <v>40892</v>
       </c>
       <c r="B248" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C248" t="n">
         <v>3</v>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>0.1210806474889451</v>
+        <v>1.039214848753039</v>
       </c>
     </row>
     <row r="249">
@@ -4605,7 +4605,7 @@
         <v>40895</v>
       </c>
       <c r="B249" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C249" t="n">
         <v>6</v>
@@ -4614,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>-1.702279496783555</v>
+        <v>-1.273174212608435</v>
       </c>
     </row>
     <row r="250">
@@ -4622,7 +4622,7 @@
         <v>40896</v>
       </c>
       <c r="B250" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="E250" t="n">
-        <v>-0.2435913813655549</v>
+        <v>0.268418494965881</v>
       </c>
     </row>
     <row r="251">
@@ -4639,7 +4639,7 @@
         <v>40897</v>
       </c>
       <c r="B251" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="E251" t="n">
-        <v>-0.4867060672685549</v>
+        <v>-0.1940593173064137</v>
       </c>
     </row>
     <row r="252">
@@ -4656,7 +4656,7 @@
         <v>40898</v>
       </c>
       <c r="B252" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C252" t="n">
         <v>2</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="E252" t="n">
-        <v>-0.1828127098898049</v>
+        <v>0.01148637703682838</v>
       </c>
     </row>
     <row r="253">
@@ -4673,7 +4673,7 @@
         <v>40899</v>
       </c>
       <c r="B253" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C253" t="n">
         <v>3</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>-0.6690420816958049</v>
+        <v>-0.7593099767503294</v>
       </c>
     </row>
     <row r="254">
@@ -4690,16 +4690,16 @@
         <v>40904</v>
       </c>
       <c r="B254" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
       </c>
       <c r="D254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>-1.155271453501805</v>
+        <v>-0.913469247507761</v>
       </c>
     </row>
     <row r="255">
@@ -4707,7 +4707,7 @@
         <v>40905</v>
       </c>
       <c r="B255" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C255" t="n">
         <v>2</v>
@@ -4716,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>2.552227506518945</v>
+        <v>2.426648285569923</v>
       </c>
     </row>
     <row r="256">
@@ -4724,7 +4724,7 @@
         <v>40906</v>
       </c>
       <c r="B256" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C256" t="n">
         <v>3</v>
@@ -4733,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>2.977678206849195</v>
+        <v>1.964170473297628</v>
       </c>
     </row>
   </sheetData>
@@ -9929,10 +9929,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -9945,10 +9945,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -9978,16 +9978,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3518518518518519</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0945273631840796</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1823722231782871</v>
+        <v>0.2879561418604534</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2835820895522388</v>
+        <v>0.4285714285714286</v>
       </c>
     </row>
     <row r="8">
@@ -10013,10 +10013,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.245901639344262</v>
+        <v>3.236607142857143</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5117273347062032</v>
+        <v>0.0002926438259151506</v>
       </c>
     </row>
     <row r="11">
@@ -10046,10 +10046,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C12" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D12" t="n">
         <v>201</v>
@@ -10085,10 +10085,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2375</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6808823529411765</v>
+        <v>0.7501679631533362</v>
       </c>
     </row>
     <row r="16">
@@ -10101,10 +10101,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3518518518518519</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6235294117647059</v>
+        <v>0.6862745098039216</v>
       </c>
     </row>
     <row r="17">
@@ -10117,10 +10117,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2835820895522388</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6470364074496104</v>
+        <v>0.7085623438564616</v>
       </c>
     </row>
     <row r="19">
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09815547153152586</v>
+        <v>0.09591564562317058</v>
       </c>
     </row>
     <row r="22">
@@ -10177,10 +10177,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>51.0078431372549</v>
+        <v>52.77647058823529</v>
       </c>
       <c r="D24" t="n">
-        <v>16.4531401512945</v>
+        <v>19.46039304194995</v>
       </c>
     </row>
   </sheetData>
@@ -10219,7 +10219,7 @@
         <v>40544</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -10227,7 +10227,7 @@
         <v>40545</v>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -10235,7 +10235,7 @@
         <v>40546</v>
       </c>
       <c r="B4" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -10243,7 +10243,7 @@
         <v>40547</v>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -10251,7 +10251,7 @@
         <v>40548</v>
       </c>
       <c r="B6" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -10259,7 +10259,7 @@
         <v>40549</v>
       </c>
       <c r="B7" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -10267,7 +10267,7 @@
         <v>40550</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -10275,7 +10275,7 @@
         <v>40551</v>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -10283,7 +10283,7 @@
         <v>40552</v>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -10291,7 +10291,7 @@
         <v>40553</v>
       </c>
       <c r="B11" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -10299,7 +10299,7 @@
         <v>40554</v>
       </c>
       <c r="B12" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -10307,7 +10307,7 @@
         <v>40555</v>
       </c>
       <c r="B13" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -10315,7 +10315,7 @@
         <v>40556</v>
       </c>
       <c r="B14" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -10323,7 +10323,7 @@
         <v>40557</v>
       </c>
       <c r="B15" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -10331,7 +10331,7 @@
         <v>40558</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -10339,7 +10339,7 @@
         <v>40559</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -10347,7 +10347,7 @@
         <v>40560</v>
       </c>
       <c r="B18" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -10355,7 +10355,7 @@
         <v>40561</v>
       </c>
       <c r="B19" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -10363,7 +10363,7 @@
         <v>40562</v>
       </c>
       <c r="B20" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
@@ -10371,7 +10371,7 @@
         <v>40563</v>
       </c>
       <c r="B21" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -10379,7 +10379,7 @@
         <v>40564</v>
       </c>
       <c r="B22" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
@@ -10387,7 +10387,7 @@
         <v>40565</v>
       </c>
       <c r="B23" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -10395,7 +10395,7 @@
         <v>40566</v>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -10403,7 +10403,7 @@
         <v>40567</v>
       </c>
       <c r="B25" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -10411,7 +10411,7 @@
         <v>40568</v>
       </c>
       <c r="B26" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -10419,7 +10419,7 @@
         <v>40569</v>
       </c>
       <c r="B27" t="n">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
@@ -10427,7 +10427,7 @@
         <v>40570</v>
       </c>
       <c r="B28" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
@@ -10435,7 +10435,7 @@
         <v>40571</v>
       </c>
       <c r="B29" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -10443,7 +10443,7 @@
         <v>40572</v>
       </c>
       <c r="B30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
@@ -10451,7 +10451,7 @@
         <v>40573</v>
       </c>
       <c r="B31" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -10459,7 +10459,7 @@
         <v>40574</v>
       </c>
       <c r="B32" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
@@ -10467,7 +10467,7 @@
         <v>40575</v>
       </c>
       <c r="B33" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
@@ -10475,7 +10475,7 @@
         <v>40576</v>
       </c>
       <c r="B34" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35">
@@ -10483,7 +10483,7 @@
         <v>40577</v>
       </c>
       <c r="B35" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36">
@@ -10491,7 +10491,7 @@
         <v>40578</v>
       </c>
       <c r="B36" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
@@ -10499,7 +10499,7 @@
         <v>40579</v>
       </c>
       <c r="B37" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -10507,7 +10507,7 @@
         <v>40580</v>
       </c>
       <c r="B38" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
@@ -10515,7 +10515,7 @@
         <v>40581</v>
       </c>
       <c r="B39" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
@@ -10531,7 +10531,7 @@
         <v>40583</v>
       </c>
       <c r="B41" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42">
@@ -10539,7 +10539,7 @@
         <v>40584</v>
       </c>
       <c r="B42" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
@@ -10547,7 +10547,7 @@
         <v>40585</v>
       </c>
       <c r="B43" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44">
@@ -10555,7 +10555,7 @@
         <v>40586</v>
       </c>
       <c r="B44" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -10563,7 +10563,7 @@
         <v>40587</v>
       </c>
       <c r="B45" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -10571,7 +10571,7 @@
         <v>40588</v>
       </c>
       <c r="B46" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47">
@@ -10579,7 +10579,7 @@
         <v>40589</v>
       </c>
       <c r="B47" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48">
@@ -10587,7 +10587,7 @@
         <v>40590</v>
       </c>
       <c r="B48" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49">
@@ -10595,7 +10595,7 @@
         <v>40591</v>
       </c>
       <c r="B49" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50">
@@ -10603,7 +10603,7 @@
         <v>40592</v>
       </c>
       <c r="B50" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -10611,7 +10611,7 @@
         <v>40593</v>
       </c>
       <c r="B51" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -10619,7 +10619,7 @@
         <v>40594</v>
       </c>
       <c r="B52" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -10627,7 +10627,7 @@
         <v>40595</v>
       </c>
       <c r="B53" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54">
@@ -10635,7 +10635,7 @@
         <v>40596</v>
       </c>
       <c r="B54" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55">
@@ -10643,7 +10643,7 @@
         <v>40597</v>
       </c>
       <c r="B55" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56">
@@ -10651,7 +10651,7 @@
         <v>40598</v>
       </c>
       <c r="B56" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57">
@@ -10659,7 +10659,7 @@
         <v>40599</v>
       </c>
       <c r="B57" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
@@ -10667,7 +10667,7 @@
         <v>40600</v>
       </c>
       <c r="B58" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
@@ -10675,7 +10675,7 @@
         <v>40601</v>
       </c>
       <c r="B59" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
@@ -10683,7 +10683,7 @@
         <v>40602</v>
       </c>
       <c r="B60" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61">
@@ -10691,7 +10691,7 @@
         <v>40603</v>
       </c>
       <c r="B61" t="n">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62">
@@ -10699,7 +10699,7 @@
         <v>40604</v>
       </c>
       <c r="B62" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63">
@@ -10707,7 +10707,7 @@
         <v>40605</v>
       </c>
       <c r="B63" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64">
@@ -10715,7 +10715,7 @@
         <v>40606</v>
       </c>
       <c r="B64" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65">
@@ -10723,7 +10723,7 @@
         <v>40607</v>
       </c>
       <c r="B65" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -10731,7 +10731,7 @@
         <v>40608</v>
       </c>
       <c r="B66" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67">
@@ -10739,7 +10739,7 @@
         <v>40609</v>
       </c>
       <c r="B67" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68">
@@ -10747,7 +10747,7 @@
         <v>40610</v>
       </c>
       <c r="B68" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69">
@@ -10755,7 +10755,7 @@
         <v>40611</v>
       </c>
       <c r="B69" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70">
@@ -10763,7 +10763,7 @@
         <v>40612</v>
       </c>
       <c r="B70" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71">
@@ -10771,7 +10771,7 @@
         <v>40613</v>
       </c>
       <c r="B71" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72">
@@ -10779,7 +10779,7 @@
         <v>40614</v>
       </c>
       <c r="B72" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
@@ -10787,7 +10787,7 @@
         <v>40615</v>
       </c>
       <c r="B73" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -10795,7 +10795,7 @@
         <v>40616</v>
       </c>
       <c r="B74" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75">
@@ -10803,7 +10803,7 @@
         <v>40617</v>
       </c>
       <c r="B75" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76">
@@ -10811,7 +10811,7 @@
         <v>40618</v>
       </c>
       <c r="B76" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77">
@@ -10819,7 +10819,7 @@
         <v>40619</v>
       </c>
       <c r="B77" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78">
@@ -10827,7 +10827,7 @@
         <v>40620</v>
       </c>
       <c r="B78" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79">
@@ -10835,7 +10835,7 @@
         <v>40621</v>
       </c>
       <c r="B79" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -10843,7 +10843,7 @@
         <v>40622</v>
       </c>
       <c r="B80" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
@@ -10851,7 +10851,7 @@
         <v>40623</v>
       </c>
       <c r="B81" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82">
@@ -10859,7 +10859,7 @@
         <v>40624</v>
       </c>
       <c r="B82" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83">
@@ -10867,7 +10867,7 @@
         <v>40625</v>
       </c>
       <c r="B83" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84">
@@ -10875,7 +10875,7 @@
         <v>40626</v>
       </c>
       <c r="B84" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85">
@@ -10883,7 +10883,7 @@
         <v>40627</v>
       </c>
       <c r="B85" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86">
@@ -10891,7 +10891,7 @@
         <v>40628</v>
       </c>
       <c r="B86" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -10899,7 +10899,7 @@
         <v>40629</v>
       </c>
       <c r="B87" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88">
@@ -10915,7 +10915,7 @@
         <v>40631</v>
       </c>
       <c r="B89" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90">
@@ -10923,7 +10923,7 @@
         <v>40632</v>
       </c>
       <c r="B90" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91">
@@ -10931,7 +10931,7 @@
         <v>40633</v>
       </c>
       <c r="B91" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92">
@@ -10939,7 +10939,7 @@
         <v>40634</v>
       </c>
       <c r="B92" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93">
@@ -10947,7 +10947,7 @@
         <v>40635</v>
       </c>
       <c r="B93" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
@@ -10955,7 +10955,7 @@
         <v>40636</v>
       </c>
       <c r="B94" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95">
@@ -10963,7 +10963,7 @@
         <v>40637</v>
       </c>
       <c r="B95" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96">
@@ -10971,7 +10971,7 @@
         <v>40638</v>
       </c>
       <c r="B96" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97">
@@ -10979,7 +10979,7 @@
         <v>40639</v>
       </c>
       <c r="B97" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
@@ -10987,7 +10987,7 @@
         <v>40640</v>
       </c>
       <c r="B98" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99">
@@ -10995,7 +10995,7 @@
         <v>40641</v>
       </c>
       <c r="B99" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100">
@@ -11003,7 +11003,7 @@
         <v>40642</v>
       </c>
       <c r="B100" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
@@ -11011,7 +11011,7 @@
         <v>40643</v>
       </c>
       <c r="B101" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
@@ -11019,7 +11019,7 @@
         <v>40644</v>
       </c>
       <c r="B102" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103">
@@ -11027,7 +11027,7 @@
         <v>40645</v>
       </c>
       <c r="B103" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104">
@@ -11035,7 +11035,7 @@
         <v>40646</v>
       </c>
       <c r="B104" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105">
@@ -11043,7 +11043,7 @@
         <v>40647</v>
       </c>
       <c r="B105" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106">
@@ -11051,7 +11051,7 @@
         <v>40648</v>
       </c>
       <c r="B106" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107">
@@ -11059,7 +11059,7 @@
         <v>40649</v>
       </c>
       <c r="B107" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
@@ -11067,7 +11067,7 @@
         <v>40650</v>
       </c>
       <c r="B108" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109">
@@ -11075,7 +11075,7 @@
         <v>40651</v>
       </c>
       <c r="B109" t="n">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110">
@@ -11083,7 +11083,7 @@
         <v>40652</v>
       </c>
       <c r="B110" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111">
@@ -11091,7 +11091,7 @@
         <v>40653</v>
       </c>
       <c r="B111" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112">
@@ -11099,7 +11099,7 @@
         <v>40654</v>
       </c>
       <c r="B112" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113">
@@ -11107,7 +11107,7 @@
         <v>40655</v>
       </c>
       <c r="B113" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114">
@@ -11115,7 +11115,7 @@
         <v>40656</v>
       </c>
       <c r="B114" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
@@ -11123,7 +11123,7 @@
         <v>40657</v>
       </c>
       <c r="B115" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116">
@@ -11131,7 +11131,7 @@
         <v>40658</v>
       </c>
       <c r="B116" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117">
@@ -11139,7 +11139,7 @@
         <v>40659</v>
       </c>
       <c r="B117" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118">
@@ -11147,7 +11147,7 @@
         <v>40660</v>
       </c>
       <c r="B118" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119">
@@ -11155,7 +11155,7 @@
         <v>40661</v>
       </c>
       <c r="B119" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120">
@@ -11163,7 +11163,7 @@
         <v>40662</v>
       </c>
       <c r="B120" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121">
@@ -11171,7 +11171,7 @@
         <v>40663</v>
       </c>
       <c r="B121" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122">
@@ -11179,7 +11179,7 @@
         <v>40664</v>
       </c>
       <c r="B122" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
@@ -11187,7 +11187,7 @@
         <v>40665</v>
       </c>
       <c r="B123" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124">
@@ -11195,7 +11195,7 @@
         <v>40666</v>
       </c>
       <c r="B124" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125">
@@ -11203,7 +11203,7 @@
         <v>40667</v>
       </c>
       <c r="B125" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126">
@@ -11211,7 +11211,7 @@
         <v>40668</v>
       </c>
       <c r="B126" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127">
@@ -11219,7 +11219,7 @@
         <v>40669</v>
       </c>
       <c r="B127" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128">
@@ -11227,7 +11227,7 @@
         <v>40670</v>
       </c>
       <c r="B128" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129">
@@ -11235,7 +11235,7 @@
         <v>40671</v>
       </c>
       <c r="B129" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130">
@@ -11243,7 +11243,7 @@
         <v>40672</v>
       </c>
       <c r="B130" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="131">
@@ -11251,7 +11251,7 @@
         <v>40673</v>
       </c>
       <c r="B131" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132">
@@ -11259,7 +11259,7 @@
         <v>40674</v>
       </c>
       <c r="B132" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133">
@@ -11267,7 +11267,7 @@
         <v>40675</v>
       </c>
       <c r="B133" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="134">
@@ -11275,7 +11275,7 @@
         <v>40676</v>
       </c>
       <c r="B134" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135">
@@ -11283,7 +11283,7 @@
         <v>40677</v>
       </c>
       <c r="B135" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136">
@@ -11299,7 +11299,7 @@
         <v>40679</v>
       </c>
       <c r="B137" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138">
@@ -11307,7 +11307,7 @@
         <v>40680</v>
       </c>
       <c r="B138" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139">
@@ -11315,7 +11315,7 @@
         <v>40681</v>
       </c>
       <c r="B139" t="n">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140">
@@ -11323,7 +11323,7 @@
         <v>40682</v>
       </c>
       <c r="B140" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="141">
@@ -11331,7 +11331,7 @@
         <v>40683</v>
       </c>
       <c r="B141" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="142">
@@ -11339,7 +11339,7 @@
         <v>40684</v>
       </c>
       <c r="B142" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143">
@@ -11347,7 +11347,7 @@
         <v>40685</v>
       </c>
       <c r="B143" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144">
@@ -11355,7 +11355,7 @@
         <v>40686</v>
       </c>
       <c r="B144" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="145">
@@ -11363,7 +11363,7 @@
         <v>40687</v>
       </c>
       <c r="B145" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="146">
@@ -11371,7 +11371,7 @@
         <v>40688</v>
       </c>
       <c r="B146" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147">
@@ -11379,7 +11379,7 @@
         <v>40689</v>
       </c>
       <c r="B147" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148">
@@ -11387,7 +11387,7 @@
         <v>40690</v>
       </c>
       <c r="B148" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149">
@@ -11395,7 +11395,7 @@
         <v>40691</v>
       </c>
       <c r="B149" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150">
@@ -11403,7 +11403,7 @@
         <v>40692</v>
       </c>
       <c r="B150" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151">
@@ -11411,7 +11411,7 @@
         <v>40693</v>
       </c>
       <c r="B151" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152">
@@ -11419,7 +11419,7 @@
         <v>40694</v>
       </c>
       <c r="B152" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="153">
@@ -11427,7 +11427,7 @@
         <v>40695</v>
       </c>
       <c r="B153" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154">
@@ -11435,7 +11435,7 @@
         <v>40696</v>
       </c>
       <c r="B154" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="155">
@@ -11443,7 +11443,7 @@
         <v>40697</v>
       </c>
       <c r="B155" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="156">
@@ -11451,7 +11451,7 @@
         <v>40698</v>
       </c>
       <c r="B156" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157">
@@ -11459,7 +11459,7 @@
         <v>40699</v>
       </c>
       <c r="B157" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158">
@@ -11467,7 +11467,7 @@
         <v>40700</v>
       </c>
       <c r="B158" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="159">
@@ -11483,7 +11483,7 @@
         <v>40702</v>
       </c>
       <c r="B160" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="161">
@@ -11491,7 +11491,7 @@
         <v>40703</v>
       </c>
       <c r="B161" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="162">
@@ -11499,7 +11499,7 @@
         <v>40704</v>
       </c>
       <c r="B162" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163">
@@ -11507,7 +11507,7 @@
         <v>40705</v>
       </c>
       <c r="B163" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164">
@@ -11515,7 +11515,7 @@
         <v>40706</v>
       </c>
       <c r="B164" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165">
@@ -11523,7 +11523,7 @@
         <v>40707</v>
       </c>
       <c r="B165" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166">
@@ -11531,7 +11531,7 @@
         <v>40708</v>
       </c>
       <c r="B166" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167">
@@ -11539,7 +11539,7 @@
         <v>40709</v>
       </c>
       <c r="B167" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168">
@@ -11547,7 +11547,7 @@
         <v>40710</v>
       </c>
       <c r="B168" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="169">
@@ -11555,7 +11555,7 @@
         <v>40711</v>
       </c>
       <c r="B169" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="170">
@@ -11563,7 +11563,7 @@
         <v>40712</v>
       </c>
       <c r="B170" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171">
@@ -11571,7 +11571,7 @@
         <v>40713</v>
       </c>
       <c r="B171" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172">
@@ -11579,7 +11579,7 @@
         <v>40714</v>
       </c>
       <c r="B172" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="173">
@@ -11587,7 +11587,7 @@
         <v>40715</v>
       </c>
       <c r="B173" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="174">
@@ -11595,7 +11595,7 @@
         <v>40716</v>
       </c>
       <c r="B174" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175">
@@ -11603,7 +11603,7 @@
         <v>40717</v>
       </c>
       <c r="B175" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="176">
@@ -11611,7 +11611,7 @@
         <v>40718</v>
       </c>
       <c r="B176" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="177">
@@ -11619,7 +11619,7 @@
         <v>40719</v>
       </c>
       <c r="B177" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178">
@@ -11627,7 +11627,7 @@
         <v>40720</v>
       </c>
       <c r="B178" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="179">
@@ -11635,7 +11635,7 @@
         <v>40721</v>
       </c>
       <c r="B179" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="180">
@@ -11643,7 +11643,7 @@
         <v>40722</v>
       </c>
       <c r="B180" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="181">
@@ -11651,7 +11651,7 @@
         <v>40723</v>
       </c>
       <c r="B181" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="182">
@@ -11659,7 +11659,7 @@
         <v>40724</v>
       </c>
       <c r="B182" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183">
@@ -11667,7 +11667,7 @@
         <v>40725</v>
       </c>
       <c r="B183" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184">
@@ -11675,7 +11675,7 @@
         <v>40726</v>
       </c>
       <c r="B184" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185">
@@ -11683,7 +11683,7 @@
         <v>40727</v>
       </c>
       <c r="B185" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186">
@@ -11691,7 +11691,7 @@
         <v>40728</v>
       </c>
       <c r="B186" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="187">
@@ -11699,7 +11699,7 @@
         <v>40729</v>
       </c>
       <c r="B187" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="188">
@@ -11715,7 +11715,7 @@
         <v>40731</v>
       </c>
       <c r="B189" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190">
@@ -11723,7 +11723,7 @@
         <v>40732</v>
       </c>
       <c r="B190" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="191">
@@ -11731,7 +11731,7 @@
         <v>40733</v>
       </c>
       <c r="B191" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192">
@@ -11739,7 +11739,7 @@
         <v>40734</v>
       </c>
       <c r="B192" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193">
@@ -11747,7 +11747,7 @@
         <v>40735</v>
       </c>
       <c r="B193" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="194">
@@ -11755,7 +11755,7 @@
         <v>40736</v>
       </c>
       <c r="B194" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="195">
@@ -11763,7 +11763,7 @@
         <v>40737</v>
       </c>
       <c r="B195" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="196">
@@ -11771,7 +11771,7 @@
         <v>40738</v>
       </c>
       <c r="B196" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197">
@@ -11787,7 +11787,7 @@
         <v>40740</v>
       </c>
       <c r="B198" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199">
@@ -11795,7 +11795,7 @@
         <v>40741</v>
       </c>
       <c r="B199" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="200">
@@ -11803,7 +11803,7 @@
         <v>40742</v>
       </c>
       <c r="B200" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="201">
@@ -11811,7 +11811,7 @@
         <v>40743</v>
       </c>
       <c r="B201" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202">
@@ -11819,7 +11819,7 @@
         <v>40744</v>
       </c>
       <c r="B202" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="203">
@@ -11827,7 +11827,7 @@
         <v>40745</v>
       </c>
       <c r="B203" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="204">
@@ -11835,7 +11835,7 @@
         <v>40746</v>
       </c>
       <c r="B204" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="205">
@@ -11843,7 +11843,7 @@
         <v>40747</v>
       </c>
       <c r="B205" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206">
@@ -11851,7 +11851,7 @@
         <v>40748</v>
       </c>
       <c r="B206" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207">
@@ -11859,7 +11859,7 @@
         <v>40749</v>
       </c>
       <c r="B207" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="208">
@@ -11867,7 +11867,7 @@
         <v>40750</v>
       </c>
       <c r="B208" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="209">
@@ -11875,7 +11875,7 @@
         <v>40751</v>
       </c>
       <c r="B209" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="210">
@@ -11883,7 +11883,7 @@
         <v>40752</v>
       </c>
       <c r="B210" t="n">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="211">
@@ -11891,7 +11891,7 @@
         <v>40753</v>
       </c>
       <c r="B211" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="212">
@@ -11899,7 +11899,7 @@
         <v>40754</v>
       </c>
       <c r="B212" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213">
@@ -11915,7 +11915,7 @@
         <v>40756</v>
       </c>
       <c r="B214" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="215">
@@ -11923,7 +11923,7 @@
         <v>40757</v>
       </c>
       <c r="B215" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="216">
@@ -11931,7 +11931,7 @@
         <v>40758</v>
       </c>
       <c r="B216" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="217">
@@ -11939,7 +11939,7 @@
         <v>40759</v>
       </c>
       <c r="B217" t="n">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="218">
@@ -11947,7 +11947,7 @@
         <v>40760</v>
       </c>
       <c r="B218" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="219">
@@ -11955,7 +11955,7 @@
         <v>40761</v>
       </c>
       <c r="B219" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220">
@@ -11963,7 +11963,7 @@
         <v>40762</v>
       </c>
       <c r="B220" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221">
@@ -11971,7 +11971,7 @@
         <v>40763</v>
       </c>
       <c r="B221" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="222">
@@ -11979,7 +11979,7 @@
         <v>40764</v>
       </c>
       <c r="B222" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="223">
@@ -11987,7 +11987,7 @@
         <v>40765</v>
       </c>
       <c r="B223" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="224">
@@ -11995,7 +11995,7 @@
         <v>40766</v>
       </c>
       <c r="B224" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="225">
@@ -12003,7 +12003,7 @@
         <v>40767</v>
       </c>
       <c r="B225" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="226">
@@ -12011,7 +12011,7 @@
         <v>40768</v>
       </c>
       <c r="B226" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="227">
@@ -12019,7 +12019,7 @@
         <v>40769</v>
       </c>
       <c r="B227" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228">
@@ -12027,7 +12027,7 @@
         <v>40770</v>
       </c>
       <c r="B228" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="229">
@@ -12035,7 +12035,7 @@
         <v>40771</v>
       </c>
       <c r="B229" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="230">
@@ -12043,7 +12043,7 @@
         <v>40772</v>
       </c>
       <c r="B230" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="231">
@@ -12051,7 +12051,7 @@
         <v>40773</v>
       </c>
       <c r="B231" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="232">
@@ -12059,7 +12059,7 @@
         <v>40774</v>
       </c>
       <c r="B232" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="233">
@@ -12067,7 +12067,7 @@
         <v>40775</v>
       </c>
       <c r="B233" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="234">
@@ -12075,7 +12075,7 @@
         <v>40776</v>
       </c>
       <c r="B234" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="235">
@@ -12083,7 +12083,7 @@
         <v>40777</v>
       </c>
       <c r="B235" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="236">
@@ -12091,7 +12091,7 @@
         <v>40778</v>
       </c>
       <c r="B236" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="237">
@@ -12099,7 +12099,7 @@
         <v>40779</v>
       </c>
       <c r="B237" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="238">
@@ -12107,7 +12107,7 @@
         <v>40780</v>
       </c>
       <c r="B238" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="239">
@@ -12115,7 +12115,7 @@
         <v>40781</v>
       </c>
       <c r="B239" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="240">
@@ -12123,7 +12123,7 @@
         <v>40782</v>
       </c>
       <c r="B240" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="241">
@@ -12131,7 +12131,7 @@
         <v>40783</v>
       </c>
       <c r="B241" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="242">
@@ -12139,7 +12139,7 @@
         <v>40784</v>
       </c>
       <c r="B242" t="n">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="243">
@@ -12147,7 +12147,7 @@
         <v>40785</v>
       </c>
       <c r="B243" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="244">
@@ -12155,7 +12155,7 @@
         <v>40786</v>
       </c>
       <c r="B244" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="245">
@@ -12163,7 +12163,7 @@
         <v>40787</v>
       </c>
       <c r="B245" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="246">
@@ -12171,7 +12171,7 @@
         <v>40788</v>
       </c>
       <c r="B246" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="247">
@@ -12179,7 +12179,7 @@
         <v>40789</v>
       </c>
       <c r="B247" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="248">
@@ -12187,7 +12187,7 @@
         <v>40790</v>
       </c>
       <c r="B248" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="249">
@@ -12195,7 +12195,7 @@
         <v>40791</v>
       </c>
       <c r="B249" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="250">
@@ -12203,7 +12203,7 @@
         <v>40792</v>
       </c>
       <c r="B250" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="251">
@@ -12211,7 +12211,7 @@
         <v>40793</v>
       </c>
       <c r="B251" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="252">
@@ -12219,7 +12219,7 @@
         <v>40794</v>
       </c>
       <c r="B252" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="253">
@@ -12227,7 +12227,7 @@
         <v>40795</v>
       </c>
       <c r="B253" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="254">
@@ -12235,7 +12235,7 @@
         <v>40796</v>
       </c>
       <c r="B254" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="255">
@@ -12251,7 +12251,7 @@
         <v>40798</v>
       </c>
       <c r="B256" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="257">
@@ -12259,7 +12259,7 @@
         <v>40799</v>
       </c>
       <c r="B257" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="258">
@@ -12267,7 +12267,7 @@
         <v>40800</v>
       </c>
       <c r="B258" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="259">
@@ -12275,7 +12275,7 @@
         <v>40801</v>
       </c>
       <c r="B259" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="260">
@@ -12283,7 +12283,7 @@
         <v>40802</v>
       </c>
       <c r="B260" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="261">
@@ -12291,7 +12291,7 @@
         <v>40803</v>
       </c>
       <c r="B261" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="262">
@@ -12299,7 +12299,7 @@
         <v>40804</v>
       </c>
       <c r="B262" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="263">
@@ -12307,7 +12307,7 @@
         <v>40805</v>
       </c>
       <c r="B263" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="264">
@@ -12315,7 +12315,7 @@
         <v>40806</v>
       </c>
       <c r="B264" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="265">
@@ -12323,7 +12323,7 @@
         <v>40807</v>
       </c>
       <c r="B265" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="266">
@@ -12331,7 +12331,7 @@
         <v>40808</v>
       </c>
       <c r="B266" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="267">
@@ -12339,7 +12339,7 @@
         <v>40809</v>
       </c>
       <c r="B267" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="268">
@@ -12347,7 +12347,7 @@
         <v>40810</v>
       </c>
       <c r="B268" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="269">
@@ -12355,7 +12355,7 @@
         <v>40811</v>
       </c>
       <c r="B269" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="270">
@@ -12363,7 +12363,7 @@
         <v>40812</v>
       </c>
       <c r="B270" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271">
@@ -12371,7 +12371,7 @@
         <v>40813</v>
       </c>
       <c r="B271" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="272">
@@ -12379,7 +12379,7 @@
         <v>40814</v>
       </c>
       <c r="B272" t="n">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="273">
@@ -12387,7 +12387,7 @@
         <v>40815</v>
       </c>
       <c r="B273" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="274">
@@ -12395,7 +12395,7 @@
         <v>40816</v>
       </c>
       <c r="B274" t="n">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="275">
@@ -12403,7 +12403,7 @@
         <v>40817</v>
       </c>
       <c r="B275" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="276">
@@ -12411,7 +12411,7 @@
         <v>40818</v>
       </c>
       <c r="B276" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="277">
@@ -12419,7 +12419,7 @@
         <v>40819</v>
       </c>
       <c r="B277" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="278">
@@ -12427,7 +12427,7 @@
         <v>40820</v>
       </c>
       <c r="B278" t="n">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="279">
@@ -12435,7 +12435,7 @@
         <v>40821</v>
       </c>
       <c r="B279" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="280">
@@ -12443,7 +12443,7 @@
         <v>40822</v>
       </c>
       <c r="B280" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="281">
@@ -12451,7 +12451,7 @@
         <v>40823</v>
       </c>
       <c r="B281" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="282">
@@ -12459,7 +12459,7 @@
         <v>40824</v>
       </c>
       <c r="B282" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="283">
@@ -12467,7 +12467,7 @@
         <v>40825</v>
       </c>
       <c r="B283" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="284">
@@ -12475,7 +12475,7 @@
         <v>40826</v>
       </c>
       <c r="B284" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="285">
@@ -12483,7 +12483,7 @@
         <v>40827</v>
       </c>
       <c r="B285" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="286">
@@ -12491,7 +12491,7 @@
         <v>40828</v>
       </c>
       <c r="B286" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="287">
@@ -12499,7 +12499,7 @@
         <v>40829</v>
       </c>
       <c r="B287" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="288">
@@ -12507,7 +12507,7 @@
         <v>40830</v>
       </c>
       <c r="B288" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="289">
@@ -12515,7 +12515,7 @@
         <v>40831</v>
       </c>
       <c r="B289" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="290">
@@ -12523,7 +12523,7 @@
         <v>40832</v>
       </c>
       <c r="B290" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="291">
@@ -12531,7 +12531,7 @@
         <v>40833</v>
       </c>
       <c r="B291" t="n">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="292">
@@ -12539,7 +12539,7 @@
         <v>40834</v>
       </c>
       <c r="B292" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="293">
@@ -12547,7 +12547,7 @@
         <v>40835</v>
       </c>
       <c r="B293" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="294">
@@ -12555,7 +12555,7 @@
         <v>40836</v>
       </c>
       <c r="B294" t="n">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="295">
@@ -12563,7 +12563,7 @@
         <v>40837</v>
       </c>
       <c r="B295" t="n">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="296">
@@ -12571,7 +12571,7 @@
         <v>40838</v>
       </c>
       <c r="B296" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="297">
@@ -12579,7 +12579,7 @@
         <v>40839</v>
       </c>
       <c r="B297" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="298">
@@ -12587,7 +12587,7 @@
         <v>40840</v>
       </c>
       <c r="B298" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="299">
@@ -12595,7 +12595,7 @@
         <v>40841</v>
       </c>
       <c r="B299" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
     </row>
     <row r="300">
@@ -12603,7 +12603,7 @@
         <v>40842</v>
       </c>
       <c r="B300" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="301">
@@ -12611,7 +12611,7 @@
         <v>40843</v>
       </c>
       <c r="B301" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="302">
@@ -12619,7 +12619,7 @@
         <v>40844</v>
       </c>
       <c r="B302" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="303">
@@ -12627,7 +12627,7 @@
         <v>40845</v>
       </c>
       <c r="B303" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="304">
@@ -12635,7 +12635,7 @@
         <v>40846</v>
       </c>
       <c r="B304" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="305">
@@ -12643,7 +12643,7 @@
         <v>40847</v>
       </c>
       <c r="B305" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="306">
@@ -12651,7 +12651,7 @@
         <v>40848</v>
       </c>
       <c r="B306" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="307">
@@ -12659,7 +12659,7 @@
         <v>40849</v>
       </c>
       <c r="B307" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="308">
@@ -12667,7 +12667,7 @@
         <v>40850</v>
       </c>
       <c r="B308" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="309">
@@ -12675,7 +12675,7 @@
         <v>40851</v>
       </c>
       <c r="B309" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="310">
@@ -12683,7 +12683,7 @@
         <v>40852</v>
       </c>
       <c r="B310" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="311">
@@ -12691,7 +12691,7 @@
         <v>40853</v>
       </c>
       <c r="B311" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="312">
@@ -12699,7 +12699,7 @@
         <v>40854</v>
       </c>
       <c r="B312" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="313">
@@ -12715,7 +12715,7 @@
         <v>40856</v>
       </c>
       <c r="B314" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="315">
@@ -12723,7 +12723,7 @@
         <v>40857</v>
       </c>
       <c r="B315" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="316">
@@ -12731,7 +12731,7 @@
         <v>40858</v>
       </c>
       <c r="B316" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="317">
@@ -12739,7 +12739,7 @@
         <v>40859</v>
       </c>
       <c r="B317" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="318">
@@ -12747,7 +12747,7 @@
         <v>40860</v>
       </c>
       <c r="B318" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="319">
@@ -12755,7 +12755,7 @@
         <v>40861</v>
       </c>
       <c r="B319" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="320">
@@ -12763,7 +12763,7 @@
         <v>40862</v>
       </c>
       <c r="B320" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="321">
@@ -12771,7 +12771,7 @@
         <v>40863</v>
       </c>
       <c r="B321" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="322">
@@ -12779,7 +12779,7 @@
         <v>40864</v>
       </c>
       <c r="B322" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="323">
@@ -12787,7 +12787,7 @@
         <v>40865</v>
       </c>
       <c r="B323" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="324">
@@ -12795,7 +12795,7 @@
         <v>40866</v>
       </c>
       <c r="B324" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="325">
@@ -12803,7 +12803,7 @@
         <v>40867</v>
       </c>
       <c r="B325" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="326">
@@ -12811,7 +12811,7 @@
         <v>40868</v>
       </c>
       <c r="B326" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="327">
@@ -12819,7 +12819,7 @@
         <v>40869</v>
       </c>
       <c r="B327" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="328">
@@ -12827,7 +12827,7 @@
         <v>40870</v>
       </c>
       <c r="B328" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="329">
@@ -12835,7 +12835,7 @@
         <v>40871</v>
       </c>
       <c r="B329" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="330">
@@ -12843,7 +12843,7 @@
         <v>40872</v>
       </c>
       <c r="B330" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="331">
@@ -12851,7 +12851,7 @@
         <v>40873</v>
       </c>
       <c r="B331" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="332">
@@ -12859,7 +12859,7 @@
         <v>40874</v>
       </c>
       <c r="B332" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="333">
@@ -12867,7 +12867,7 @@
         <v>40875</v>
       </c>
       <c r="B333" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="334">
@@ -12875,7 +12875,7 @@
         <v>40876</v>
       </c>
       <c r="B334" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="335">
@@ -12883,7 +12883,7 @@
         <v>40877</v>
       </c>
       <c r="B335" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="336">
@@ -12891,7 +12891,7 @@
         <v>40878</v>
       </c>
       <c r="B336" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="337">
@@ -12899,7 +12899,7 @@
         <v>40879</v>
       </c>
       <c r="B337" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="338">
@@ -12907,7 +12907,7 @@
         <v>40880</v>
       </c>
       <c r="B338" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="339">
@@ -12915,7 +12915,7 @@
         <v>40881</v>
       </c>
       <c r="B339" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="340">
@@ -12923,7 +12923,7 @@
         <v>40882</v>
       </c>
       <c r="B340" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="341">
@@ -12931,7 +12931,7 @@
         <v>40883</v>
       </c>
       <c r="B341" t="n">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="342">
@@ -12939,7 +12939,7 @@
         <v>40884</v>
       </c>
       <c r="B342" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="343">
@@ -12947,7 +12947,7 @@
         <v>40885</v>
       </c>
       <c r="B343" t="n">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="344">
@@ -12955,7 +12955,7 @@
         <v>40886</v>
       </c>
       <c r="B344" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="345">
@@ -12963,7 +12963,7 @@
         <v>40887</v>
       </c>
       <c r="B345" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="346">
@@ -12971,7 +12971,7 @@
         <v>40888</v>
       </c>
       <c r="B346" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="347">
@@ -12979,7 +12979,7 @@
         <v>40889</v>
       </c>
       <c r="B347" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="348">
@@ -12987,7 +12987,7 @@
         <v>40890</v>
       </c>
       <c r="B348" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="349">
@@ -12995,7 +12995,7 @@
         <v>40891</v>
       </c>
       <c r="B349" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="350">
@@ -13003,7 +13003,7 @@
         <v>40892</v>
       </c>
       <c r="B350" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="351">
@@ -13011,7 +13011,7 @@
         <v>40893</v>
       </c>
       <c r="B351" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="352">
@@ -13019,7 +13019,7 @@
         <v>40894</v>
       </c>
       <c r="B352" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="353">
@@ -13027,7 +13027,7 @@
         <v>40895</v>
       </c>
       <c r="B353" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="354">
@@ -13035,7 +13035,7 @@
         <v>40896</v>
       </c>
       <c r="B354" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="355">
@@ -13043,7 +13043,7 @@
         <v>40897</v>
       </c>
       <c r="B355" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="356">
@@ -13051,7 +13051,7 @@
         <v>40898</v>
       </c>
       <c r="B356" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="357">
@@ -13059,7 +13059,7 @@
         <v>40899</v>
       </c>
       <c r="B357" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="358">
@@ -13067,7 +13067,7 @@
         <v>40900</v>
       </c>
       <c r="B358" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="359">
@@ -13075,7 +13075,7 @@
         <v>40901</v>
       </c>
       <c r="B359" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="360">
@@ -13083,7 +13083,7 @@
         <v>40902</v>
       </c>
       <c r="B360" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="361">
@@ -13091,7 +13091,7 @@
         <v>40903</v>
       </c>
       <c r="B361" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="362">
@@ -13099,7 +13099,7 @@
         <v>40904</v>
       </c>
       <c r="B362" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="363">
@@ -13107,7 +13107,7 @@
         <v>40905</v>
       </c>
       <c r="B363" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="364">
@@ -13115,7 +13115,7 @@
         <v>40906</v>
       </c>
       <c r="B364" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="365">
@@ -13123,7 +13123,7 @@
         <v>40907</v>
       </c>
       <c r="B365" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="366">
@@ -13131,7 +13131,7 @@
         <v>40908</v>
       </c>
       <c r="B366" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
